--- a/test/fixtures/files/extracted/NguyenHuynhThanhThao-Review cheo.Dinh tinh.xlsx
+++ b/test/fixtures/files/extracted/NguyenHuynhThanhThao-Review cheo.Dinh tinh.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19425" windowHeight="11025"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19425" windowHeight="11025" activeTab="4"/>
   </bookViews>
   <sheets>
-    <sheet name="考え方- Tu duy" sheetId="1" r:id="rId1"/>
-    <sheet name="熱意- Nhiet tinh" sheetId="2" r:id="rId2"/>
-    <sheet name="Vai trò -Chung " sheetId="9" r:id="rId3"/>
-    <sheet name="Vai trò -Leader" sheetId="10" r:id="rId4"/>
-    <sheet name="Vai trò -Manager" sheetId="11" r:id="rId5"/>
+    <sheet name="考え方- tu_duy" sheetId="1" r:id="rId1"/>
+    <sheet name="熱意- nhiet_tinh" sheetId="2" r:id="rId2"/>
+    <sheet name="chung- vai_tro " sheetId="9" r:id="rId3"/>
+    <sheet name="leader- vai_tro" sheetId="10" r:id="rId4"/>
+    <sheet name="manager- vai_tro" sheetId="11" r:id="rId5"/>
     <sheet name="能力" sheetId="3" state="hidden" r:id="rId6"/>
     <sheet name="スキル2.0" sheetId="6" state="hidden" r:id="rId7"/>
   </sheets>
@@ -4360,26 +4360,6 @@
     </r>
   </si>
   <si>
-    <t>レビュー
-Review- Tri</t>
-  </si>
-  <si>
-    <t>レビュー
-Review- Lệ</t>
-  </si>
-  <si>
-    <t>レビュー
-Review- Long</t>
-  </si>
-  <si>
-    <t>レビュー
-Review- Nhu</t>
-  </si>
-  <si>
-    <t>レビュー
-Review- Thịnh</t>
-  </si>
-  <si>
     <t>Leader</t>
   </si>
   <si>
@@ -4455,10 +4435,6 @@
   <si>
     <t>Làm rõ các KPI, phân tích chúng hàng tuần, thông báo cho nhóm và quản lý cấp cao,
  đồng thời nâng cao mức hoạt động cần thiết</t>
-  </si>
-  <si>
-    <t>レビュー
-Review- Linh</t>
   </si>
   <si>
     <t>Khởi điểm</t>
@@ -4546,43 +4522,7 @@
 mà còn với các đối tác kinh doanh và các nhóm ngành.</t>
   </si>
   <si>
-    <t>レビュー
-Review- anh Lâm</t>
-  </si>
-  <si>
     <t>Note: Thực hiện đánh giá khách quan cho tất cả mọi người. Bỏ trống phần có tên của chính mình.</t>
-  </si>
-  <si>
-    <t>レビュー
-Review-anh Lâm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">レビュー
-Review- Tài </t>
-  </si>
-  <si>
-    <t>レビュー
-Review- Đạt</t>
-  </si>
-  <si>
-    <t>レビュー
-Review- Dũng</t>
-  </si>
-  <si>
-    <t>レビュー
-Review- Nam</t>
-  </si>
-  <si>
-    <t>レビュー
-Review- Khương</t>
-  </si>
-  <si>
-    <t>レビュー
-Review- Tài</t>
-  </si>
-  <si>
-    <t>レビュー
-Review- Thuận</t>
   </si>
   <si>
     <t>レビュー
@@ -4593,19 +4533,79 @@
   </si>
   <si>
     <t>レビュー
-Review- Thảo(nữ)</t>
+Review- DangThanhLam</t>
   </si>
   <si>
     <t>レビュー
-Review- Tuấn Anh</t>
+Review- NguyenMinhTri</t>
   </si>
   <si>
     <t>レビュー
-Review- Thảo (nam)</t>
+Review- TranPhatTai</t>
   </si>
   <si>
     <t>レビュー
-Review- Minh</t>
+Review- DangPhatThinh</t>
+  </si>
+  <si>
+    <t>レビュー
+Review- LeThiThuyLinh</t>
+  </si>
+  <si>
+    <t>レビュー
+Review- NguyenThiNhatLe</t>
+  </si>
+  <si>
+    <t>レビュー
+Review- LeMinhLong</t>
+  </si>
+  <si>
+    <t>レビュー
+Review- DangHoangNhu</t>
+  </si>
+  <si>
+    <t>レビュー
+Review- TranTienDat</t>
+  </si>
+  <si>
+    <t>レビュー
+Review- DinHienDung</t>
+  </si>
+  <si>
+    <t>レビュー
+Review- MaiNhatNam</t>
+  </si>
+  <si>
+    <t>レビュー
+Review- NguyenLeKhuong</t>
+  </si>
+  <si>
+    <t>レビュー
+Review- TranKhanhThuan</t>
+  </si>
+  <si>
+    <t>レビュー
+Review- NguyenHuynhThanhThao</t>
+  </si>
+  <si>
+    <t>レビュー
+Review- PhamTuanAnh</t>
+  </si>
+  <si>
+    <t>レビュー
+Review- NguyenVanThao</t>
+  </si>
+  <si>
+    <t>レビュー
+Review- NguyenQuangMinh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">レビュー
+Review- TranPhatTai </t>
+  </si>
+  <si>
+    <t>レビュー
+Review-DangThanhLam</t>
   </si>
 </sst>
 </file>
@@ -5209,8 +5209,11 @@
     <xf numFmtId="0" fontId="27" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -5218,11 +5221,8 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -5530,7 +5530,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -5543,11 +5543,11 @@
   </sheetPr>
   <dimension ref="A1:W37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D2" sqref="D2"/>
+      <selection pane="bottomRight" activeCell="D2" sqref="D2:T2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5557,7 +5557,9 @@
     <col min="3" max="3" width="78.85546875" style="11" customWidth="1"/>
     <col min="5" max="5" width="8.85546875" customWidth="1"/>
     <col min="6" max="6" width="10.140625" customWidth="1"/>
-    <col min="7" max="8" width="8.7109375" customWidth="1"/>
+    <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.7109375" customWidth="1"/>
+    <col min="20" max="20" width="24.85546875" customWidth="1"/>
     <col min="21" max="21" width="8.7109375" style="44" customWidth="1"/>
     <col min="22" max="22" width="10.28515625" customWidth="1"/>
     <col min="23" max="23" width="9.85546875" customWidth="1"/>
@@ -5570,71 +5572,71 @@
       <c r="B1" s="14"/>
       <c r="C1"/>
       <c r="D1" s="43" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="F1" s="43"/>
     </row>
-    <row r="2" spans="1:23" s="36" customFormat="1" ht="78.75">
+    <row r="2" spans="1:23" s="36" customFormat="1" ht="94.5">
       <c r="C2" s="37"/>
       <c r="D2" s="38" t="s">
+        <v>326</v>
+      </c>
+      <c r="E2" s="38" t="s">
+        <v>327</v>
+      </c>
+      <c r="F2" s="38" t="s">
+        <v>328</v>
+      </c>
+      <c r="G2" s="38" t="s">
         <v>329</v>
       </c>
-      <c r="E2" s="38" t="s">
-        <v>280</v>
-      </c>
-      <c r="F2" s="38" t="s">
+      <c r="H2" s="38" t="s">
+        <v>330</v>
+      </c>
+      <c r="I2" s="38" t="s">
+        <v>331</v>
+      </c>
+      <c r="J2" s="38" t="s">
+        <v>332</v>
+      </c>
+      <c r="K2" s="38" t="s">
+        <v>333</v>
+      </c>
+      <c r="L2" s="38" t="s">
+        <v>334</v>
+      </c>
+      <c r="M2" s="38" t="s">
+        <v>335</v>
+      </c>
+      <c r="N2" s="38" t="s">
+        <v>336</v>
+      </c>
+      <c r="O2" s="38" t="s">
         <v>337</v>
-      </c>
-      <c r="G2" s="38" t="s">
-        <v>284</v>
-      </c>
-      <c r="H2" s="38" t="s">
-        <v>306</v>
-      </c>
-      <c r="I2" s="38" t="s">
-        <v>281</v>
-      </c>
-      <c r="J2" s="38" t="s">
-        <v>282</v>
-      </c>
-      <c r="K2" s="38" t="s">
-        <v>283</v>
-      </c>
-      <c r="L2" s="38" t="s">
-        <v>333</v>
-      </c>
-      <c r="M2" s="38" t="s">
-        <v>334</v>
-      </c>
-      <c r="N2" s="38" t="s">
-        <v>335</v>
-      </c>
-      <c r="O2" s="38" t="s">
-        <v>336</v>
       </c>
       <c r="P2" s="38" t="s">
         <v>338</v>
       </c>
       <c r="Q2" s="38" t="s">
+        <v>339</v>
+      </c>
+      <c r="R2" s="38" t="s">
+        <v>340</v>
+      </c>
+      <c r="S2" s="38" t="s">
         <v>341</v>
       </c>
-      <c r="R2" s="38" t="s">
+      <c r="T2" s="38" t="s">
         <v>342</v>
       </c>
-      <c r="S2" s="38" t="s">
-        <v>343</v>
-      </c>
-      <c r="T2" s="38" t="s">
-        <v>344</v>
-      </c>
       <c r="U2" s="45" t="s">
-        <v>339</v>
+        <v>324</v>
       </c>
       <c r="V2" s="46" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="W2" s="46" t="s">
-        <v>340</v>
+        <v>325</v>
       </c>
     </row>
     <row r="3" spans="1:23" ht="24">
@@ -7519,10 +7521,10 @@
   <dimension ref="A1:Y36"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C21" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="F21" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E3" sqref="E3:U27"/>
+      <selection pane="bottomRight" activeCell="E2" sqref="E2:U2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7546,72 +7548,72 @@
         <v>208</v>
       </c>
       <c r="E1" s="43" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="G1" s="43"/>
       <c r="H1" s="43"/>
     </row>
-    <row r="2" spans="1:24" s="36" customFormat="1" ht="78.75">
+    <row r="2" spans="1:24" s="36" customFormat="1" ht="94.5">
       <c r="C2" s="37"/>
       <c r="E2" s="38" t="s">
+        <v>326</v>
+      </c>
+      <c r="F2" s="38" t="s">
+        <v>327</v>
+      </c>
+      <c r="G2" s="38" t="s">
+        <v>328</v>
+      </c>
+      <c r="H2" s="38" t="s">
         <v>329</v>
       </c>
-      <c r="F2" s="38" t="s">
-        <v>280</v>
-      </c>
-      <c r="G2" s="38" t="s">
+      <c r="I2" s="38" t="s">
+        <v>330</v>
+      </c>
+      <c r="J2" s="38" t="s">
+        <v>331</v>
+      </c>
+      <c r="K2" s="38" t="s">
+        <v>332</v>
+      </c>
+      <c r="L2" s="38" t="s">
+        <v>333</v>
+      </c>
+      <c r="M2" s="38" t="s">
+        <v>334</v>
+      </c>
+      <c r="N2" s="38" t="s">
+        <v>335</v>
+      </c>
+      <c r="O2" s="38" t="s">
+        <v>336</v>
+      </c>
+      <c r="P2" s="38" t="s">
         <v>337</v>
-      </c>
-      <c r="H2" s="38" t="s">
-        <v>284</v>
-      </c>
-      <c r="I2" s="38" t="s">
-        <v>306</v>
-      </c>
-      <c r="J2" s="38" t="s">
-        <v>281</v>
-      </c>
-      <c r="K2" s="38" t="s">
-        <v>282</v>
-      </c>
-      <c r="L2" s="38" t="s">
-        <v>283</v>
-      </c>
-      <c r="M2" s="38" t="s">
-        <v>333</v>
-      </c>
-      <c r="N2" s="38" t="s">
-        <v>334</v>
-      </c>
-      <c r="O2" s="38" t="s">
-        <v>335</v>
-      </c>
-      <c r="P2" s="38" t="s">
-        <v>336</v>
       </c>
       <c r="Q2" s="38" t="s">
         <v>338</v>
       </c>
       <c r="R2" s="38" t="s">
+        <v>339</v>
+      </c>
+      <c r="S2" s="38" t="s">
+        <v>340</v>
+      </c>
+      <c r="T2" s="38" t="s">
         <v>341</v>
       </c>
-      <c r="S2" s="38" t="s">
+      <c r="U2" s="38" t="s">
         <v>342</v>
       </c>
-      <c r="T2" s="38" t="s">
-        <v>343</v>
-      </c>
-      <c r="U2" s="38" t="s">
-        <v>344</v>
-      </c>
       <c r="V2" s="45" t="s">
-        <v>339</v>
+        <v>324</v>
       </c>
       <c r="W2" s="46" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="X2" s="46" t="s">
-        <v>340</v>
+        <v>325</v>
       </c>
     </row>
     <row r="3" spans="1:24" ht="24">
@@ -7621,10 +7623,10 @@
       <c r="B3" s="24" t="s">
         <v>209</v>
       </c>
-      <c r="C3" s="53" t="s">
+      <c r="C3" s="54" t="s">
         <v>223</v>
       </c>
-      <c r="D3" s="54"/>
+      <c r="D3" s="55"/>
       <c r="E3" s="30">
         <v>4</v>
       </c>
@@ -7693,10 +7695,10 @@
       <c r="B4" s="24" t="s">
         <v>209</v>
       </c>
-      <c r="C4" s="53" t="s">
+      <c r="C4" s="54" t="s">
         <v>222</v>
       </c>
-      <c r="D4" s="54"/>
+      <c r="D4" s="55"/>
       <c r="E4" s="30">
         <v>5</v>
       </c>
@@ -7765,10 +7767,10 @@
       <c r="B5" s="24" t="s">
         <v>209</v>
       </c>
-      <c r="C5" s="53" t="s">
+      <c r="C5" s="54" t="s">
         <v>224</v>
       </c>
-      <c r="D5" s="54"/>
+      <c r="D5" s="55"/>
       <c r="E5" s="30">
         <v>5</v>
       </c>
@@ -7837,10 +7839,10 @@
       <c r="B6" s="24" t="s">
         <v>209</v>
       </c>
-      <c r="C6" s="55" t="s">
+      <c r="C6" s="52" t="s">
         <v>214</v>
       </c>
-      <c r="D6" s="56"/>
+      <c r="D6" s="53"/>
       <c r="E6" s="30">
         <v>3</v>
       </c>
@@ -7909,10 +7911,10 @@
       <c r="B7" s="24" t="s">
         <v>209</v>
       </c>
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="54" t="s">
         <v>215</v>
       </c>
-      <c r="D7" s="54"/>
+      <c r="D7" s="55"/>
       <c r="E7" s="30">
         <v>3</v>
       </c>
@@ -7981,10 +7983,10 @@
       <c r="B8" s="24" t="s">
         <v>210</v>
       </c>
-      <c r="C8" s="53" t="s">
+      <c r="C8" s="54" t="s">
         <v>216</v>
       </c>
-      <c r="D8" s="54"/>
+      <c r="D8" s="55"/>
       <c r="E8" s="30">
         <v>5</v>
       </c>
@@ -8053,10 +8055,10 @@
       <c r="B9" s="24" t="s">
         <v>210</v>
       </c>
-      <c r="C9" s="55" t="s">
+      <c r="C9" s="52" t="s">
         <v>217</v>
       </c>
-      <c r="D9" s="56"/>
+      <c r="D9" s="53"/>
       <c r="E9" s="30">
         <v>5</v>
       </c>
@@ -8125,10 +8127,10 @@
       <c r="B10" s="24" t="s">
         <v>210</v>
       </c>
-      <c r="C10" s="53" t="s">
+      <c r="C10" s="54" t="s">
         <v>218</v>
       </c>
-      <c r="D10" s="54"/>
+      <c r="D10" s="55"/>
       <c r="E10" s="30">
         <v>4</v>
       </c>
@@ -8197,10 +8199,10 @@
       <c r="B11" s="24" t="s">
         <v>210</v>
       </c>
-      <c r="C11" s="53" t="s">
+      <c r="C11" s="54" t="s">
         <v>219</v>
       </c>
-      <c r="D11" s="54"/>
+      <c r="D11" s="55"/>
       <c r="E11" s="30">
         <v>4</v>
       </c>
@@ -8269,10 +8271,10 @@
       <c r="B12" s="24" t="s">
         <v>210</v>
       </c>
-      <c r="C12" s="53" t="s">
+      <c r="C12" s="54" t="s">
         <v>220</v>
       </c>
-      <c r="D12" s="54"/>
+      <c r="D12" s="55"/>
       <c r="E12" s="30">
         <v>5</v>
       </c>
@@ -8341,10 +8343,10 @@
       <c r="B13" s="24" t="s">
         <v>211</v>
       </c>
-      <c r="C13" s="53" t="s">
+      <c r="C13" s="54" t="s">
         <v>221</v>
       </c>
-      <c r="D13" s="54"/>
+      <c r="D13" s="55"/>
       <c r="E13" s="30">
         <v>5</v>
       </c>
@@ -8413,10 +8415,10 @@
       <c r="B14" s="24" t="s">
         <v>211</v>
       </c>
-      <c r="C14" s="53" t="s">
+      <c r="C14" s="54" t="s">
         <v>225</v>
       </c>
-      <c r="D14" s="54"/>
+      <c r="D14" s="55"/>
       <c r="E14" s="30">
         <v>3</v>
       </c>
@@ -8485,10 +8487,10 @@
       <c r="B15" s="24" t="s">
         <v>211</v>
       </c>
-      <c r="C15" s="53" t="s">
+      <c r="C15" s="54" t="s">
         <v>226</v>
       </c>
-      <c r="D15" s="54"/>
+      <c r="D15" s="55"/>
       <c r="E15" s="30">
         <v>3</v>
       </c>
@@ -8557,10 +8559,10 @@
       <c r="B16" s="24" t="s">
         <v>211</v>
       </c>
-      <c r="C16" s="53" t="s">
+      <c r="C16" s="54" t="s">
         <v>227</v>
       </c>
-      <c r="D16" s="54"/>
+      <c r="D16" s="55"/>
       <c r="E16" s="30">
         <v>5</v>
       </c>
@@ -8629,10 +8631,10 @@
       <c r="B17" s="24" t="s">
         <v>211</v>
       </c>
-      <c r="C17" s="53" t="s">
+      <c r="C17" s="54" t="s">
         <v>228</v>
       </c>
-      <c r="D17" s="54"/>
+      <c r="D17" s="55"/>
       <c r="E17" s="30">
         <v>3</v>
       </c>
@@ -8701,10 +8703,10 @@
       <c r="B18" s="24" t="s">
         <v>211</v>
       </c>
-      <c r="C18" s="53" t="s">
+      <c r="C18" s="54" t="s">
         <v>229</v>
       </c>
-      <c r="D18" s="54"/>
+      <c r="D18" s="55"/>
       <c r="E18" s="30">
         <v>4</v>
       </c>
@@ -8773,10 +8775,10 @@
       <c r="B19" s="24" t="s">
         <v>212</v>
       </c>
-      <c r="C19" s="53" t="s">
+      <c r="C19" s="54" t="s">
         <v>230</v>
       </c>
-      <c r="D19" s="54"/>
+      <c r="D19" s="55"/>
       <c r="E19" s="30">
         <v>4</v>
       </c>
@@ -8845,10 +8847,10 @@
       <c r="B20" s="24" t="s">
         <v>212</v>
       </c>
-      <c r="C20" s="53" t="s">
+      <c r="C20" s="54" t="s">
         <v>231</v>
       </c>
-      <c r="D20" s="54"/>
+      <c r="D20" s="55"/>
       <c r="E20" s="30">
         <v>5</v>
       </c>
@@ -8917,10 +8919,10 @@
       <c r="B21" s="24" t="s">
         <v>213</v>
       </c>
-      <c r="C21" s="53" t="s">
+      <c r="C21" s="54" t="s">
         <v>232</v>
       </c>
-      <c r="D21" s="54"/>
+      <c r="D21" s="55"/>
       <c r="E21" s="30">
         <v>4</v>
       </c>
@@ -8989,10 +8991,10 @@
       <c r="B22" s="24" t="s">
         <v>213</v>
       </c>
-      <c r="C22" s="53" t="s">
+      <c r="C22" s="54" t="s">
         <v>233</v>
       </c>
-      <c r="D22" s="54"/>
+      <c r="D22" s="55"/>
       <c r="E22" s="30">
         <v>4</v>
       </c>
@@ -9061,10 +9063,10 @@
       <c r="B23" s="24" t="s">
         <v>213</v>
       </c>
-      <c r="C23" s="53" t="s">
+      <c r="C23" s="54" t="s">
         <v>234</v>
       </c>
-      <c r="D23" s="54"/>
+      <c r="D23" s="55"/>
       <c r="E23" s="30">
         <v>4</v>
       </c>
@@ -9133,10 +9135,10 @@
       <c r="B24" s="24" t="s">
         <v>213</v>
       </c>
-      <c r="C24" s="55" t="s">
+      <c r="C24" s="52" t="s">
         <v>235</v>
       </c>
-      <c r="D24" s="56"/>
+      <c r="D24" s="53"/>
       <c r="E24" s="30">
         <v>4</v>
       </c>
@@ -9204,10 +9206,10 @@
       <c r="B25" s="24" t="s">
         <v>213</v>
       </c>
-      <c r="C25" s="55" t="s">
+      <c r="C25" s="52" t="s">
         <v>236</v>
       </c>
-      <c r="D25" s="56"/>
+      <c r="D25" s="53"/>
       <c r="E25" s="30">
         <v>5</v>
       </c>
@@ -9275,10 +9277,10 @@
       <c r="B26" s="24" t="s">
         <v>213</v>
       </c>
-      <c r="C26" s="53" t="s">
+      <c r="C26" s="54" t="s">
         <v>237</v>
       </c>
-      <c r="D26" s="54"/>
+      <c r="D26" s="55"/>
       <c r="E26" s="30">
         <v>5</v>
       </c>
@@ -9346,10 +9348,10 @@
       <c r="B27" s="24" t="s">
         <v>213</v>
       </c>
-      <c r="C27" s="55" t="s">
+      <c r="C27" s="52" t="s">
         <v>238</v>
       </c>
-      <c r="D27" s="56"/>
+      <c r="D27" s="53"/>
       <c r="E27" s="30">
         <v>5</v>
       </c>
@@ -9514,54 +9516,71 @@
       <c r="B32" s="1">
         <v>4</v>
       </c>
-      <c r="C32" s="52" t="s">
+      <c r="C32" s="56" t="s">
         <v>240</v>
       </c>
-      <c r="D32" s="52"/>
+      <c r="D32" s="56"/>
       <c r="E32" s="12"/>
     </row>
     <row r="33" spans="2:5" ht="30" customHeight="1">
       <c r="B33" s="1">
         <v>3</v>
       </c>
-      <c r="C33" s="52" t="s">
+      <c r="C33" s="56" t="s">
         <v>241</v>
       </c>
-      <c r="D33" s="52"/>
+      <c r="D33" s="56"/>
       <c r="E33" s="12"/>
     </row>
     <row r="34" spans="2:5" ht="31.5" customHeight="1">
       <c r="B34" s="1">
         <v>2</v>
       </c>
-      <c r="C34" s="52" t="s">
+      <c r="C34" s="56" t="s">
         <v>242</v>
       </c>
-      <c r="D34" s="52"/>
+      <c r="D34" s="56"/>
       <c r="E34" s="12"/>
     </row>
     <row r="35" spans="2:5" ht="39" customHeight="1">
       <c r="B35" s="1">
         <v>1</v>
       </c>
-      <c r="C35" s="52" t="s">
+      <c r="C35" s="56" t="s">
         <v>243</v>
       </c>
-      <c r="D35" s="52"/>
+      <c r="D35" s="56"/>
       <c r="E35" s="12"/>
     </row>
     <row r="36" spans="2:5" ht="36.75" customHeight="1">
       <c r="B36" s="1">
         <v>0</v>
       </c>
-      <c r="C36" s="52" t="s">
+      <c r="C36" s="56" t="s">
         <v>244</v>
       </c>
-      <c r="D36" s="52"/>
+      <c r="D36" s="56"/>
       <c r="E36" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C18:D18"/>
     <mergeCell ref="C24:D24"/>
     <mergeCell ref="C23:D23"/>
     <mergeCell ref="C3:D3"/>
@@ -9578,23 +9597,6 @@
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C27:D27"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -9610,10 +9612,10 @@
   <dimension ref="A1:X32"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C21" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="E21" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F3" sqref="F3"/>
+      <selection pane="bottomRight" activeCell="T26" sqref="T26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9636,70 +9638,70 @@
         <v>246</v>
       </c>
       <c r="E1" s="43" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="2" spans="1:24" s="36" customFormat="1" ht="78.75">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" s="36" customFormat="1" ht="94.5">
       <c r="C2" s="37"/>
       <c r="E2" s="38" t="s">
+        <v>326</v>
+      </c>
+      <c r="F2" s="38" t="s">
+        <v>327</v>
+      </c>
+      <c r="G2" s="38" t="s">
+        <v>328</v>
+      </c>
+      <c r="H2" s="38" t="s">
         <v>329</v>
       </c>
-      <c r="F2" s="38" t="s">
-        <v>280</v>
-      </c>
-      <c r="G2" s="38" t="s">
+      <c r="I2" s="38" t="s">
+        <v>330</v>
+      </c>
+      <c r="J2" s="38" t="s">
+        <v>331</v>
+      </c>
+      <c r="K2" s="38" t="s">
+        <v>332</v>
+      </c>
+      <c r="L2" s="38" t="s">
+        <v>333</v>
+      </c>
+      <c r="M2" s="38" t="s">
+        <v>334</v>
+      </c>
+      <c r="N2" s="38" t="s">
+        <v>335</v>
+      </c>
+      <c r="O2" s="38" t="s">
+        <v>336</v>
+      </c>
+      <c r="P2" s="38" t="s">
         <v>337</v>
-      </c>
-      <c r="H2" s="38" t="s">
-        <v>284</v>
-      </c>
-      <c r="I2" s="38" t="s">
-        <v>306</v>
-      </c>
-      <c r="J2" s="38" t="s">
-        <v>281</v>
-      </c>
-      <c r="K2" s="38" t="s">
-        <v>282</v>
-      </c>
-      <c r="L2" s="38" t="s">
-        <v>283</v>
-      </c>
-      <c r="M2" s="38" t="s">
-        <v>333</v>
-      </c>
-      <c r="N2" s="38" t="s">
-        <v>334</v>
-      </c>
-      <c r="O2" s="38" t="s">
-        <v>335</v>
-      </c>
-      <c r="P2" s="38" t="s">
-        <v>336</v>
       </c>
       <c r="Q2" s="38" t="s">
         <v>338</v>
       </c>
       <c r="R2" s="38" t="s">
+        <v>339</v>
+      </c>
+      <c r="S2" s="38" t="s">
+        <v>340</v>
+      </c>
+      <c r="T2" s="38" t="s">
         <v>341</v>
       </c>
-      <c r="S2" s="38" t="s">
+      <c r="U2" s="38" t="s">
         <v>342</v>
       </c>
-      <c r="T2" s="38" t="s">
-        <v>343</v>
-      </c>
-      <c r="U2" s="38" t="s">
-        <v>344</v>
-      </c>
       <c r="V2" s="45" t="s">
-        <v>339</v>
+        <v>324</v>
       </c>
       <c r="W2" s="46" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="X2" s="46" t="s">
-        <v>340</v>
+        <v>325</v>
       </c>
     </row>
     <row r="3" spans="1:24" s="27" customFormat="1" ht="31.5">
@@ -11245,7 +11247,7 @@
     <row r="24" spans="1:24">
       <c r="V24"/>
       <c r="X24" s="49">
-        <f>X23+'熱意- Nhiet tinh'!X28+'考え方- Tu duy'!W28</f>
+        <f>X23+'熱意- nhiet_tinh'!X28+'考え方- tu_duy'!W28</f>
         <v>439.15</v>
       </c>
     </row>
@@ -11344,7 +11346,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C24" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F9" sqref="F9"/>
+      <selection pane="bottomRight" activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11364,20 +11366,20 @@
         <v>246</v>
       </c>
       <c r="E1" s="43" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="31.5">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="63">
       <c r="E2" s="38" t="s">
-        <v>280</v>
+        <v>327</v>
       </c>
       <c r="F2" s="38" t="s">
-        <v>332</v>
+        <v>343</v>
       </c>
     </row>
     <row r="3" spans="1:6" s="27" customFormat="1" ht="15.75">
       <c r="A3" s="26" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="B3" s="31" t="s">
         <v>248</v>
@@ -11386,7 +11388,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="31" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="E3" s="33">
         <v>4</v>
@@ -11397,7 +11399,7 @@
     </row>
     <row r="4" spans="1:6" s="27" customFormat="1" ht="29.1" customHeight="1">
       <c r="A4" s="26" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="B4" s="31" t="s">
         <v>248</v>
@@ -11406,7 +11408,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="31" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="E4" s="33">
         <v>2</v>
@@ -11417,7 +11419,7 @@
     </row>
     <row r="5" spans="1:6" s="27" customFormat="1" ht="29.1" customHeight="1">
       <c r="A5" s="26" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="B5" s="31" t="s">
         <v>248</v>
@@ -11426,7 +11428,7 @@
         <v>3</v>
       </c>
       <c r="D5" s="32" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="E5" s="33">
         <v>4</v>
@@ -11437,7 +11439,7 @@
     </row>
     <row r="6" spans="1:6" s="27" customFormat="1" ht="31.5">
       <c r="A6" s="26" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="B6" s="31" t="s">
         <v>248</v>
@@ -11446,7 +11448,7 @@
         <v>4</v>
       </c>
       <c r="D6" s="32" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="E6" s="33">
         <v>2</v>
@@ -11457,7 +11459,7 @@
     </row>
     <row r="7" spans="1:6" s="27" customFormat="1" ht="31.5">
       <c r="A7" s="26" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="B7" s="31" t="s">
         <v>248</v>
@@ -11466,7 +11468,7 @@
         <v>5</v>
       </c>
       <c r="D7" s="32" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="E7" s="33">
         <v>4</v>
@@ -11477,7 +11479,7 @@
     </row>
     <row r="8" spans="1:6" s="27" customFormat="1" ht="31.5">
       <c r="A8" s="26" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="B8" s="31" t="s">
         <v>248</v>
@@ -11486,7 +11488,7 @@
         <v>6</v>
       </c>
       <c r="D8" s="32" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="E8" s="33">
         <v>2</v>
@@ -11497,7 +11499,7 @@
     </row>
     <row r="9" spans="1:6" s="27" customFormat="1" ht="24.95" customHeight="1">
       <c r="A9" s="26" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="B9" s="31" t="s">
         <v>248</v>
@@ -11506,7 +11508,7 @@
         <v>7</v>
       </c>
       <c r="D9" s="31" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="E9" s="33">
         <v>4</v>
@@ -11517,7 +11519,7 @@
     </row>
     <row r="10" spans="1:6" s="27" customFormat="1" ht="15.75">
       <c r="A10" s="26" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="B10" s="31" t="s">
         <v>248</v>
@@ -11526,7 +11528,7 @@
         <v>8</v>
       </c>
       <c r="D10" s="31" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="E10" s="33">
         <v>3</v>
@@ -11537,7 +11539,7 @@
     </row>
     <row r="11" spans="1:6" s="27" customFormat="1" ht="31.5">
       <c r="A11" s="26" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="B11" s="31" t="s">
         <v>248</v>
@@ -11546,7 +11548,7 @@
         <v>9</v>
       </c>
       <c r="D11" s="32" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="E11" s="33">
         <v>3</v>
@@ -11557,7 +11559,7 @@
     </row>
     <row r="12" spans="1:6" s="27" customFormat="1" ht="31.5">
       <c r="A12" s="26" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="B12" s="31" t="s">
         <v>248</v>
@@ -11566,7 +11568,7 @@
         <v>10</v>
       </c>
       <c r="D12" s="32" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="E12" s="33">
         <v>4</v>
@@ -11577,7 +11579,7 @@
     </row>
     <row r="13" spans="1:6" s="27" customFormat="1" ht="31.5">
       <c r="A13" s="26" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="B13" s="31" t="s">
         <v>248</v>
@@ -11586,7 +11588,7 @@
         <v>11</v>
       </c>
       <c r="D13" s="32" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="E13" s="33">
         <v>3</v>
@@ -11597,7 +11599,7 @@
     </row>
     <row r="14" spans="1:6" s="27" customFormat="1" ht="31.5">
       <c r="A14" s="26" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="B14" s="31" t="s">
         <v>248</v>
@@ -11606,7 +11608,7 @@
         <v>12</v>
       </c>
       <c r="D14" s="32" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="E14" s="33">
         <v>4</v>
@@ -11617,7 +11619,7 @@
     </row>
     <row r="15" spans="1:6" s="27" customFormat="1" ht="15.75">
       <c r="A15" s="26" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="B15" s="31" t="s">
         <v>248</v>
@@ -11626,7 +11628,7 @@
         <v>13</v>
       </c>
       <c r="D15" s="31" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="E15" s="33">
         <v>2</v>
@@ -11637,7 +11639,7 @@
     </row>
     <row r="16" spans="1:6" s="27" customFormat="1" ht="31.5">
       <c r="A16" s="26" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="B16" s="31" t="s">
         <v>248</v>
@@ -11646,7 +11648,7 @@
         <v>14</v>
       </c>
       <c r="D16" s="32" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="E16" s="33">
         <v>4</v>
@@ -11657,7 +11659,7 @@
     </row>
     <row r="17" spans="1:6" s="27" customFormat="1" ht="31.5">
       <c r="A17" s="26" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="B17" s="31" t="s">
         <v>248</v>
@@ -11666,7 +11668,7 @@
         <v>15</v>
       </c>
       <c r="D17" s="32" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="E17" s="33">
         <v>4</v>
@@ -11677,7 +11679,7 @@
     </row>
     <row r="18" spans="1:6" s="27" customFormat="1" ht="31.5">
       <c r="A18" s="26" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="B18" s="31" t="s">
         <v>248</v>
@@ -11686,7 +11688,7 @@
         <v>16</v>
       </c>
       <c r="D18" s="32" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="E18" s="33">
         <v>2</v>
@@ -11697,7 +11699,7 @@
     </row>
     <row r="19" spans="1:6" s="27" customFormat="1" ht="31.5">
       <c r="A19" s="26" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="B19" s="31" t="s">
         <v>248</v>
@@ -11706,7 +11708,7 @@
         <v>17</v>
       </c>
       <c r="D19" s="32" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="E19" s="33">
         <v>3</v>
@@ -11717,7 +11719,7 @@
     </row>
     <row r="20" spans="1:6" s="27" customFormat="1" ht="31.5">
       <c r="A20" s="26" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="B20" s="31" t="s">
         <v>248</v>
@@ -11726,7 +11728,7 @@
         <v>18</v>
       </c>
       <c r="D20" s="32" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="E20" s="33">
         <v>2</v>
@@ -11737,7 +11739,7 @@
     </row>
     <row r="21" spans="1:6" s="27" customFormat="1" ht="15.75">
       <c r="A21" s="26" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="B21" s="31" t="s">
         <v>248</v>
@@ -11746,7 +11748,7 @@
         <v>19</v>
       </c>
       <c r="D21" s="31" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="E21" s="33">
         <v>3</v>
@@ -11757,7 +11759,7 @@
     </row>
     <row r="22" spans="1:6" s="27" customFormat="1" ht="31.5">
       <c r="A22" s="26" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="B22" s="31" t="s">
         <v>248</v>
@@ -11766,7 +11768,7 @@
         <v>20</v>
       </c>
       <c r="D22" s="32" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="E22" s="33">
         <v>3</v>
@@ -11876,11 +11878,11 @@
   </sheetPr>
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G29" sqref="G29"/>
+      <selection pane="bottomRight" activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11901,23 +11903,23 @@
         <v>246</v>
       </c>
       <c r="E1" s="43" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="63">
+      <c r="E2" s="38" t="s">
+        <v>344</v>
+      </c>
+      <c r="F2" s="40" t="s">
+        <v>301</v>
+      </c>
+      <c r="G2" s="38" t="s">
         <v>330</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="47.25">
-      <c r="E2" s="38" t="s">
-        <v>331</v>
-      </c>
-      <c r="F2" s="40" t="s">
-        <v>307</v>
-      </c>
-      <c r="G2" s="38" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="3" spans="1:7" s="27" customFormat="1" ht="31.5">
       <c r="A3" s="26" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="B3" s="31" t="s">
         <v>248</v>
@@ -11926,7 +11928,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="32" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="E3" s="41">
         <v>3</v>
@@ -11938,7 +11940,7 @@
     </row>
     <row r="4" spans="1:7" s="27" customFormat="1" ht="29.1" customHeight="1">
       <c r="A4" s="26" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="B4" s="31" t="s">
         <v>248</v>
@@ -11947,7 +11949,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="32" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="E4" s="41">
         <v>3</v>
@@ -11959,7 +11961,7 @@
     </row>
     <row r="5" spans="1:7" s="27" customFormat="1" ht="29.1" customHeight="1">
       <c r="A5" s="26" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="B5" s="31" t="s">
         <v>248</v>
@@ -11968,7 +11970,7 @@
         <v>3</v>
       </c>
       <c r="D5" s="32" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="E5" s="41">
         <v>4</v>
@@ -11980,7 +11982,7 @@
     </row>
     <row r="6" spans="1:7" s="27" customFormat="1" ht="31.5">
       <c r="A6" s="26" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="B6" s="31" t="s">
         <v>248</v>
@@ -11989,7 +11991,7 @@
         <v>4</v>
       </c>
       <c r="D6" s="32" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="E6" s="41">
         <v>4</v>
@@ -12001,7 +12003,7 @@
     </row>
     <row r="7" spans="1:7" s="27" customFormat="1" ht="31.5">
       <c r="A7" s="26" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="B7" s="31" t="s">
         <v>248</v>
@@ -12010,7 +12012,7 @@
         <v>5</v>
       </c>
       <c r="D7" s="32" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="E7" s="41">
         <v>3</v>
@@ -12022,7 +12024,7 @@
     </row>
     <row r="8" spans="1:7" s="27" customFormat="1" ht="31.5">
       <c r="A8" s="26" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="B8" s="31" t="s">
         <v>248</v>
@@ -12031,7 +12033,7 @@
         <v>6</v>
       </c>
       <c r="D8" s="32" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="E8" s="41">
         <v>3</v>
@@ -12043,7 +12045,7 @@
     </row>
     <row r="9" spans="1:7" s="27" customFormat="1" ht="33.6" customHeight="1">
       <c r="A9" s="26" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="B9" s="31" t="s">
         <v>248</v>
@@ -12052,7 +12054,7 @@
         <v>7</v>
       </c>
       <c r="D9" s="32" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="E9" s="41">
         <v>4</v>
@@ -12064,7 +12066,7 @@
     </row>
     <row r="10" spans="1:7" s="27" customFormat="1" ht="31.5">
       <c r="A10" s="26" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="B10" s="31" t="s">
         <v>248</v>
@@ -12073,7 +12075,7 @@
         <v>8</v>
       </c>
       <c r="D10" s="32" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="E10" s="41">
         <v>4</v>
@@ -12085,7 +12087,7 @@
     </row>
     <row r="11" spans="1:7" s="27" customFormat="1" ht="31.5">
       <c r="A11" s="26" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="B11" s="31" t="s">
         <v>248</v>
@@ -12094,7 +12096,7 @@
         <v>9</v>
       </c>
       <c r="D11" s="32" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="E11" s="41">
         <v>3</v>
@@ -12106,7 +12108,7 @@
     </row>
     <row r="12" spans="1:7" s="27" customFormat="1" ht="31.5">
       <c r="A12" s="26" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="B12" s="31" t="s">
         <v>248</v>
@@ -12115,7 +12117,7 @@
         <v>10</v>
       </c>
       <c r="D12" s="32" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="E12" s="41">
         <v>4</v>
@@ -12127,7 +12129,7 @@
     </row>
     <row r="13" spans="1:7" s="27" customFormat="1" ht="31.5">
       <c r="A13" s="26" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="B13" s="31" t="s">
         <v>248</v>
@@ -12136,7 +12138,7 @@
         <v>11</v>
       </c>
       <c r="D13" s="32" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="E13" s="41">
         <v>4</v>
@@ -12148,7 +12150,7 @@
     </row>
     <row r="14" spans="1:7" s="27" customFormat="1" ht="31.5">
       <c r="A14" s="26" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="B14" s="31" t="s">
         <v>248</v>
@@ -12157,7 +12159,7 @@
         <v>12</v>
       </c>
       <c r="D14" s="32" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="E14" s="41">
         <v>3</v>
@@ -12169,7 +12171,7 @@
     </row>
     <row r="15" spans="1:7" s="27" customFormat="1" ht="31.5">
       <c r="A15" s="26" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="B15" s="31" t="s">
         <v>248</v>
@@ -12178,7 +12180,7 @@
         <v>13</v>
       </c>
       <c r="D15" s="32" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="E15" s="41">
         <v>4</v>
@@ -12190,7 +12192,7 @@
     </row>
     <row r="16" spans="1:7" s="27" customFormat="1" ht="31.5">
       <c r="A16" s="26" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="B16" s="31" t="s">
         <v>248</v>
@@ -12199,7 +12201,7 @@
         <v>14</v>
       </c>
       <c r="D16" s="32" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="E16" s="41">
         <v>4</v>
@@ -12211,7 +12213,7 @@
     </row>
     <row r="17" spans="1:7" s="27" customFormat="1" ht="31.5">
       <c r="A17" s="26" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="B17" s="31" t="s">
         <v>248</v>
@@ -12220,7 +12222,7 @@
         <v>15</v>
       </c>
       <c r="D17" s="32" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="E17" s="41">
         <v>3</v>
@@ -12232,7 +12234,7 @@
     </row>
     <row r="18" spans="1:7" s="27" customFormat="1" ht="15.75">
       <c r="A18" s="26" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="B18" s="31" t="s">
         <v>248</v>
@@ -12241,7 +12243,7 @@
         <v>16</v>
       </c>
       <c r="D18" s="31" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="E18" s="41">
         <v>3</v>
@@ -12253,7 +12255,7 @@
     </row>
     <row r="19" spans="1:7" s="27" customFormat="1" ht="47.1" customHeight="1">
       <c r="A19" s="26" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="B19" s="31" t="s">
         <v>248</v>
@@ -12262,7 +12264,7 @@
         <v>17</v>
       </c>
       <c r="D19" s="32" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="E19" s="41">
         <v>3</v>
@@ -12274,7 +12276,7 @@
     </row>
     <row r="20" spans="1:7" s="27" customFormat="1" ht="15.75">
       <c r="A20" s="26" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="B20" s="31" t="s">
         <v>248</v>
@@ -12283,7 +12285,7 @@
         <v>18</v>
       </c>
       <c r="D20" s="31" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="E20" s="41">
         <v>4</v>
@@ -12295,7 +12297,7 @@
     </row>
     <row r="21" spans="1:7" s="27" customFormat="1" ht="31.5">
       <c r="A21" s="26" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="B21" s="31" t="s">
         <v>248</v>
@@ -12304,7 +12306,7 @@
         <v>19</v>
       </c>
       <c r="D21" s="32" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="E21" s="41">
         <v>3</v>
@@ -12316,7 +12318,7 @@
     </row>
     <row r="22" spans="1:7" s="27" customFormat="1" ht="31.5">
       <c r="A22" s="26" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="B22" s="31" t="s">
         <v>248</v>
@@ -12325,7 +12327,7 @@
         <v>20</v>
       </c>
       <c r="D22" s="32" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="E22" s="41">
         <v>3</v>

--- a/test/fixtures/files/extracted/NguyenHuynhThanhThao-Review cheo.Dinh tinh.xlsx
+++ b/test/fixtures/files/extracted/NguyenHuynhThanhThao-Review cheo.Dinh tinh.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="345">
   <si>
     <t>具体的な目標を設定し、定期的に途中面談し、結果をフィードバックできる</t>
     <rPh sb="0" eb="3">
@@ -4869,7 +4869,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4892,12 +4892,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6D9F0"/>
-        <bgColor rgb="FFC6D9F0"/>
       </patternFill>
     </fill>
     <fill>
@@ -5052,7 +5046,7 @@
     </xf>
     <xf numFmtId="9" fontId="33" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -5173,10 +5167,7 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="34" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="35" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="35" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5188,10 +5179,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="34" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="34" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="34" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="34" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
@@ -5209,11 +5200,8 @@
     <xf numFmtId="0" fontId="27" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -5221,8 +5209,11 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -5530,7 +5521,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -5544,10 +5535,10 @@
   <dimension ref="A1:W37"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D2" sqref="D2:T2"/>
+      <selection pane="bottomRight" activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5560,7 +5551,7 @@
     <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.7109375" customWidth="1"/>
     <col min="20" max="20" width="24.85546875" customWidth="1"/>
-    <col min="21" max="21" width="8.7109375" style="44" customWidth="1"/>
+    <col min="21" max="21" width="8.7109375" style="43" customWidth="1"/>
     <col min="22" max="22" width="10.28515625" customWidth="1"/>
     <col min="23" max="23" width="9.85546875" customWidth="1"/>
   </cols>
@@ -5571,10 +5562,10 @@
       </c>
       <c r="B1" s="14"/>
       <c r="C1"/>
-      <c r="D1" s="43" t="s">
+      <c r="D1" s="42" t="s">
         <v>323</v>
       </c>
-      <c r="F1" s="43"/>
+      <c r="F1" s="42"/>
     </row>
     <row r="2" spans="1:23" s="36" customFormat="1" ht="94.5">
       <c r="C2" s="37"/>
@@ -5629,13 +5620,13 @@
       <c r="T2" s="38" t="s">
         <v>342</v>
       </c>
-      <c r="U2" s="45" t="s">
+      <c r="U2" s="44" t="s">
         <v>324</v>
       </c>
-      <c r="V2" s="46" t="s">
+      <c r="V2" s="45" t="s">
         <v>301</v>
       </c>
-      <c r="W2" s="46" t="s">
+      <c r="W2" s="45" t="s">
         <v>325</v>
       </c>
     </row>
@@ -5695,14 +5686,14 @@
       <c r="T3" s="27">
         <v>4</v>
       </c>
-      <c r="U3" s="47">
+      <c r="U3" s="46">
         <f t="shared" ref="U3:U27" si="0">AVERAGE(D3:T3)</f>
         <v>3.6875</v>
       </c>
-      <c r="V3" s="42">
+      <c r="V3" s="41">
         <v>1.6</v>
       </c>
-      <c r="W3" s="42">
+      <c r="W3" s="41">
         <f>U3*V3</f>
         <v>5.9</v>
       </c>
@@ -5763,14 +5754,14 @@
       <c r="T4" s="27">
         <v>4</v>
       </c>
-      <c r="U4" s="47">
+      <c r="U4" s="46">
         <f t="shared" si="0"/>
         <v>3.5</v>
       </c>
-      <c r="V4" s="42">
+      <c r="V4" s="41">
         <v>1.6</v>
       </c>
-      <c r="W4" s="42">
+      <c r="W4" s="41">
         <f t="shared" ref="W4:W27" si="1">U4*V4</f>
         <v>5.6000000000000005</v>
       </c>
@@ -5831,14 +5822,14 @@
       <c r="T5" s="27">
         <v>4</v>
       </c>
-      <c r="U5" s="47">
+      <c r="U5" s="46">
         <f t="shared" si="0"/>
         <v>3.625</v>
       </c>
-      <c r="V5" s="42">
+      <c r="V5" s="41">
         <v>1.6</v>
       </c>
-      <c r="W5" s="42">
+      <c r="W5" s="41">
         <f t="shared" si="1"/>
         <v>5.8000000000000007</v>
       </c>
@@ -5902,14 +5893,14 @@
       <c r="T6" s="27">
         <v>4</v>
       </c>
-      <c r="U6" s="47">
+      <c r="U6" s="46">
         <f t="shared" si="0"/>
         <v>3.625</v>
       </c>
-      <c r="V6" s="42">
+      <c r="V6" s="41">
         <v>1.6</v>
       </c>
-      <c r="W6" s="42">
+      <c r="W6" s="41">
         <f t="shared" si="1"/>
         <v>5.8000000000000007</v>
       </c>
@@ -5973,14 +5964,14 @@
       <c r="T7" s="27">
         <v>4</v>
       </c>
-      <c r="U7" s="47">
+      <c r="U7" s="46">
         <f t="shared" si="0"/>
         <v>3.5625</v>
       </c>
-      <c r="V7" s="42">
+      <c r="V7" s="41">
         <v>1.6</v>
       </c>
-      <c r="W7" s="42">
+      <c r="W7" s="41">
         <f t="shared" si="1"/>
         <v>5.7</v>
       </c>
@@ -6041,14 +6032,14 @@
       <c r="T8" s="27">
         <v>3</v>
       </c>
-      <c r="U8" s="47">
+      <c r="U8" s="46">
         <f t="shared" si="0"/>
         <v>3.75</v>
       </c>
-      <c r="V8" s="42">
+      <c r="V8" s="41">
         <v>1.6</v>
       </c>
-      <c r="W8" s="42">
+      <c r="W8" s="41">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
@@ -6112,14 +6103,14 @@
       <c r="T9" s="27">
         <v>3</v>
       </c>
-      <c r="U9" s="47">
+      <c r="U9" s="46">
         <f t="shared" si="0"/>
         <v>3.6875</v>
       </c>
-      <c r="V9" s="42">
+      <c r="V9" s="41">
         <v>1.6</v>
       </c>
-      <c r="W9" s="42">
+      <c r="W9" s="41">
         <f t="shared" si="1"/>
         <v>5.9</v>
       </c>
@@ -6180,14 +6171,14 @@
       <c r="T10" s="27">
         <v>4</v>
       </c>
-      <c r="U10" s="47">
+      <c r="U10" s="46">
         <f t="shared" si="0"/>
         <v>3.6875</v>
       </c>
-      <c r="V10" s="42">
+      <c r="V10" s="41">
         <v>1.6</v>
       </c>
-      <c r="W10" s="42">
+      <c r="W10" s="41">
         <f t="shared" si="1"/>
         <v>5.9</v>
       </c>
@@ -6248,14 +6239,14 @@
       <c r="T11" s="27">
         <v>4</v>
       </c>
-      <c r="U11" s="47">
+      <c r="U11" s="46">
         <f t="shared" si="0"/>
         <v>3.6875</v>
       </c>
-      <c r="V11" s="42">
+      <c r="V11" s="41">
         <v>1.6</v>
       </c>
-      <c r="W11" s="42">
+      <c r="W11" s="41">
         <f t="shared" si="1"/>
         <v>5.9</v>
       </c>
@@ -6319,14 +6310,14 @@
       <c r="T12" s="27">
         <v>4</v>
       </c>
-      <c r="U12" s="47">
+      <c r="U12" s="46">
         <f t="shared" si="0"/>
         <v>3.9375</v>
       </c>
-      <c r="V12" s="42">
+      <c r="V12" s="41">
         <v>1.6</v>
       </c>
-      <c r="W12" s="42">
+      <c r="W12" s="41">
         <f t="shared" si="1"/>
         <v>6.3000000000000007</v>
       </c>
@@ -6387,14 +6378,14 @@
       <c r="T13" s="27">
         <v>3</v>
       </c>
-      <c r="U13" s="47">
+      <c r="U13" s="46">
         <f t="shared" si="0"/>
         <v>3.375</v>
       </c>
-      <c r="V13" s="42">
+      <c r="V13" s="41">
         <v>1.6</v>
       </c>
-      <c r="W13" s="42">
+      <c r="W13" s="41">
         <f t="shared" si="1"/>
         <v>5.4</v>
       </c>
@@ -6455,14 +6446,14 @@
       <c r="T14" s="27">
         <v>3</v>
       </c>
-      <c r="U14" s="47">
+      <c r="U14" s="46">
         <f t="shared" si="0"/>
         <v>3.75</v>
       </c>
-      <c r="V14" s="42">
+      <c r="V14" s="41">
         <v>1.6</v>
       </c>
-      <c r="W14" s="42">
+      <c r="W14" s="41">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
@@ -6523,14 +6514,14 @@
       <c r="T15" s="27">
         <v>3</v>
       </c>
-      <c r="U15" s="47">
+      <c r="U15" s="46">
         <f t="shared" si="0"/>
         <v>3.5625</v>
       </c>
-      <c r="V15" s="42">
+      <c r="V15" s="41">
         <v>1.6</v>
       </c>
-      <c r="W15" s="42">
+      <c r="W15" s="41">
         <f t="shared" si="1"/>
         <v>5.7</v>
       </c>
@@ -6591,14 +6582,14 @@
       <c r="T16" s="27">
         <v>3</v>
       </c>
-      <c r="U16" s="47">
+      <c r="U16" s="46">
         <f t="shared" si="0"/>
         <v>3.625</v>
       </c>
-      <c r="V16" s="42">
+      <c r="V16" s="41">
         <v>1.6</v>
       </c>
-      <c r="W16" s="42">
+      <c r="W16" s="41">
         <f t="shared" si="1"/>
         <v>5.8000000000000007</v>
       </c>
@@ -6662,14 +6653,14 @@
       <c r="T17" s="27">
         <v>4</v>
       </c>
-      <c r="U17" s="47">
+      <c r="U17" s="46">
         <f t="shared" si="0"/>
         <v>3.8125</v>
       </c>
-      <c r="V17" s="42">
+      <c r="V17" s="41">
         <v>1.6</v>
       </c>
-      <c r="W17" s="42">
+      <c r="W17" s="41">
         <f t="shared" si="1"/>
         <v>6.1000000000000005</v>
       </c>
@@ -6730,14 +6721,14 @@
       <c r="T18" s="27">
         <v>4</v>
       </c>
-      <c r="U18" s="47">
+      <c r="U18" s="46">
         <f t="shared" si="0"/>
         <v>3.625</v>
       </c>
-      <c r="V18" s="42">
+      <c r="V18" s="41">
         <v>1.6</v>
       </c>
-      <c r="W18" s="42">
+      <c r="W18" s="41">
         <f t="shared" si="1"/>
         <v>5.8000000000000007</v>
       </c>
@@ -6798,14 +6789,14 @@
       <c r="T19" s="27">
         <v>4</v>
       </c>
-      <c r="U19" s="47">
+      <c r="U19" s="46">
         <f t="shared" si="0"/>
         <v>3.5</v>
       </c>
-      <c r="V19" s="42">
+      <c r="V19" s="41">
         <v>1.6</v>
       </c>
-      <c r="W19" s="42">
+      <c r="W19" s="41">
         <f t="shared" si="1"/>
         <v>5.6000000000000005</v>
       </c>
@@ -6866,14 +6857,14 @@
       <c r="T20" s="27">
         <v>4</v>
       </c>
-      <c r="U20" s="47">
+      <c r="U20" s="46">
         <f t="shared" si="0"/>
         <v>3.6875</v>
       </c>
-      <c r="V20" s="42">
+      <c r="V20" s="41">
         <v>1.6</v>
       </c>
-      <c r="W20" s="42">
+      <c r="W20" s="41">
         <f t="shared" si="1"/>
         <v>5.9</v>
       </c>
@@ -6937,14 +6928,14 @@
       <c r="T21" s="27">
         <v>4</v>
       </c>
-      <c r="U21" s="47">
+      <c r="U21" s="46">
         <f t="shared" si="0"/>
         <v>3.875</v>
       </c>
-      <c r="V21" s="42">
+      <c r="V21" s="41">
         <v>1.6</v>
       </c>
-      <c r="W21" s="42">
+      <c r="W21" s="41">
         <f t="shared" si="1"/>
         <v>6.2</v>
       </c>
@@ -7005,14 +6996,14 @@
       <c r="T22" s="27">
         <v>4</v>
       </c>
-      <c r="U22" s="47">
+      <c r="U22" s="46">
         <f t="shared" si="0"/>
         <v>3.625</v>
       </c>
-      <c r="V22" s="42">
+      <c r="V22" s="41">
         <v>1.6</v>
       </c>
-      <c r="W22" s="42">
+      <c r="W22" s="41">
         <f t="shared" si="1"/>
         <v>5.8000000000000007</v>
       </c>
@@ -7073,14 +7064,14 @@
       <c r="T23" s="27">
         <v>3</v>
       </c>
-      <c r="U23" s="47">
+      <c r="U23" s="46">
         <f t="shared" si="0"/>
         <v>3.625</v>
       </c>
-      <c r="V23" s="42">
+      <c r="V23" s="41">
         <v>1.6</v>
       </c>
-      <c r="W23" s="42">
+      <c r="W23" s="41">
         <f t="shared" si="1"/>
         <v>5.8000000000000007</v>
       </c>
@@ -7140,14 +7131,14 @@
       <c r="T24" s="27">
         <v>4</v>
       </c>
-      <c r="U24" s="47">
+      <c r="U24" s="46">
         <f t="shared" si="0"/>
         <v>3.625</v>
       </c>
-      <c r="V24" s="42">
+      <c r="V24" s="41">
         <v>1.6</v>
       </c>
-      <c r="W24" s="42">
+      <c r="W24" s="41">
         <f t="shared" si="1"/>
         <v>5.8000000000000007</v>
       </c>
@@ -7207,14 +7198,14 @@
       <c r="T25" s="27">
         <v>4</v>
       </c>
-      <c r="U25" s="47">
+      <c r="U25" s="46">
         <f t="shared" si="0"/>
         <v>3.9375</v>
       </c>
-      <c r="V25" s="42">
+      <c r="V25" s="41">
         <v>1.6</v>
       </c>
-      <c r="W25" s="42">
+      <c r="W25" s="41">
         <f t="shared" si="1"/>
         <v>6.3000000000000007</v>
       </c>
@@ -7274,14 +7265,14 @@
       <c r="T26" s="27">
         <v>3</v>
       </c>
-      <c r="U26" s="47">
+      <c r="U26" s="46">
         <f t="shared" si="0"/>
         <v>3.5</v>
       </c>
-      <c r="V26" s="42">
+      <c r="V26" s="41">
         <v>1.6</v>
       </c>
-      <c r="W26" s="42">
+      <c r="W26" s="41">
         <f t="shared" si="1"/>
         <v>5.6000000000000005</v>
       </c>
@@ -7341,23 +7332,23 @@
       <c r="T27" s="27">
         <v>3</v>
       </c>
-      <c r="U27" s="47">
+      <c r="U27" s="46">
         <f t="shared" si="0"/>
         <v>3.6875</v>
       </c>
-      <c r="V27" s="42">
+      <c r="V27" s="41">
         <v>1.6</v>
       </c>
-      <c r="W27" s="42">
+      <c r="W27" s="41">
         <f t="shared" si="1"/>
         <v>5.9</v>
       </c>
     </row>
     <row r="28" spans="1:23">
-      <c r="B28" s="51" t="s">
+      <c r="B28" s="50" t="s">
         <v>272</v>
       </c>
-      <c r="C28" s="51"/>
+      <c r="C28" s="50"/>
       <c r="D28">
         <f>SUM(D3:D27)</f>
         <v>109</v>
@@ -7426,7 +7417,7 @@
         <f t="shared" si="2"/>
         <v>91</v>
       </c>
-      <c r="W28" s="50">
+      <c r="W28" s="49">
         <f>SUM(W3:W27)</f>
         <v>146.5</v>
       </c>
@@ -7521,10 +7512,10 @@
   <dimension ref="A1:Y36"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="F21" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E2" sqref="E2:U2"/>
+      <selection pane="bottomRight" activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7535,7 +7526,8 @@
     <col min="6" max="6" width="8.85546875" customWidth="1"/>
     <col min="7" max="8" width="10.140625" customWidth="1"/>
     <col min="9" max="10" width="8.7109375" customWidth="1"/>
-    <col min="25" max="25" width="8.7109375" style="44" customWidth="1"/>
+    <col min="21" max="21" width="10" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="8.7109375" style="43" customWidth="1"/>
     <col min="26" max="26" width="10.28515625" customWidth="1"/>
     <col min="27" max="27" width="9.85546875" customWidth="1"/>
   </cols>
@@ -7547,11 +7539,11 @@
       <c r="C1" s="23" t="s">
         <v>208</v>
       </c>
-      <c r="E1" s="43" t="s">
+      <c r="E1" s="42" t="s">
         <v>323</v>
       </c>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
     </row>
     <row r="2" spans="1:24" s="36" customFormat="1" ht="94.5">
       <c r="C2" s="37"/>
@@ -7606,13 +7598,13 @@
       <c r="U2" s="38" t="s">
         <v>342</v>
       </c>
-      <c r="V2" s="45" t="s">
+      <c r="V2" s="44" t="s">
         <v>324</v>
       </c>
-      <c r="W2" s="46" t="s">
+      <c r="W2" s="45" t="s">
         <v>301</v>
       </c>
-      <c r="X2" s="46" t="s">
+      <c r="X2" s="45" t="s">
         <v>325</v>
       </c>
     </row>
@@ -7623,10 +7615,10 @@
       <c r="B3" s="24" t="s">
         <v>209</v>
       </c>
-      <c r="C3" s="54" t="s">
+      <c r="C3" s="52" t="s">
         <v>223</v>
       </c>
-      <c r="D3" s="55"/>
+      <c r="D3" s="53"/>
       <c r="E3" s="30">
         <v>4</v>
       </c>
@@ -7676,14 +7668,14 @@
       <c r="U3" s="27">
         <v>4</v>
       </c>
-      <c r="V3" s="47">
+      <c r="V3" s="46">
         <f>AVERAGE(E3:U3)</f>
         <v>3.625</v>
       </c>
-      <c r="W3" s="42">
+      <c r="W3" s="41">
         <v>1.6</v>
       </c>
-      <c r="X3" s="42">
+      <c r="X3" s="41">
         <f>V3*W3</f>
         <v>5.8000000000000007</v>
       </c>
@@ -7695,10 +7687,10 @@
       <c r="B4" s="24" t="s">
         <v>209</v>
       </c>
-      <c r="C4" s="54" t="s">
+      <c r="C4" s="52" t="s">
         <v>222</v>
       </c>
-      <c r="D4" s="55"/>
+      <c r="D4" s="53"/>
       <c r="E4" s="30">
         <v>5</v>
       </c>
@@ -7748,14 +7740,14 @@
       <c r="U4" s="27">
         <v>4</v>
       </c>
-      <c r="V4" s="47">
+      <c r="V4" s="46">
         <f t="shared" ref="V4:V27" si="0">AVERAGE(E4:U4)</f>
         <v>3.6875</v>
       </c>
-      <c r="W4" s="42">
+      <c r="W4" s="41">
         <v>1.6</v>
       </c>
-      <c r="X4" s="42">
+      <c r="X4" s="41">
         <f t="shared" ref="X4:X27" si="1">V4*W4</f>
         <v>5.9</v>
       </c>
@@ -7767,10 +7759,10 @@
       <c r="B5" s="24" t="s">
         <v>209</v>
       </c>
-      <c r="C5" s="54" t="s">
+      <c r="C5" s="52" t="s">
         <v>224</v>
       </c>
-      <c r="D5" s="55"/>
+      <c r="D5" s="53"/>
       <c r="E5" s="30">
         <v>5</v>
       </c>
@@ -7820,14 +7812,14 @@
       <c r="U5" s="27">
         <v>4</v>
       </c>
-      <c r="V5" s="47">
+      <c r="V5" s="46">
         <f t="shared" si="0"/>
         <v>3.4375</v>
       </c>
-      <c r="W5" s="42">
+      <c r="W5" s="41">
         <v>1.6</v>
       </c>
-      <c r="X5" s="42">
+      <c r="X5" s="41">
         <f t="shared" si="1"/>
         <v>5.5</v>
       </c>
@@ -7839,10 +7831,10 @@
       <c r="B6" s="24" t="s">
         <v>209</v>
       </c>
-      <c r="C6" s="52" t="s">
+      <c r="C6" s="54" t="s">
         <v>214</v>
       </c>
-      <c r="D6" s="53"/>
+      <c r="D6" s="55"/>
       <c r="E6" s="30">
         <v>3</v>
       </c>
@@ -7892,14 +7884,14 @@
       <c r="U6" s="27">
         <v>4</v>
       </c>
-      <c r="V6" s="47">
+      <c r="V6" s="46">
         <f t="shared" si="0"/>
         <v>3.5625</v>
       </c>
-      <c r="W6" s="42">
+      <c r="W6" s="41">
         <v>1.6</v>
       </c>
-      <c r="X6" s="42">
+      <c r="X6" s="41">
         <f t="shared" si="1"/>
         <v>5.7</v>
       </c>
@@ -7911,10 +7903,10 @@
       <c r="B7" s="24" t="s">
         <v>209</v>
       </c>
-      <c r="C7" s="54" t="s">
+      <c r="C7" s="52" t="s">
         <v>215</v>
       </c>
-      <c r="D7" s="55"/>
+      <c r="D7" s="53"/>
       <c r="E7" s="30">
         <v>3</v>
       </c>
@@ -7964,14 +7956,14 @@
       <c r="U7" s="27">
         <v>4</v>
       </c>
-      <c r="V7" s="47">
+      <c r="V7" s="46">
         <f t="shared" si="0"/>
         <v>3.4375</v>
       </c>
-      <c r="W7" s="42">
+      <c r="W7" s="41">
         <v>1.6</v>
       </c>
-      <c r="X7" s="42">
+      <c r="X7" s="41">
         <f t="shared" si="1"/>
         <v>5.5</v>
       </c>
@@ -7983,10 +7975,10 @@
       <c r="B8" s="24" t="s">
         <v>210</v>
       </c>
-      <c r="C8" s="54" t="s">
+      <c r="C8" s="52" t="s">
         <v>216</v>
       </c>
-      <c r="D8" s="55"/>
+      <c r="D8" s="53"/>
       <c r="E8" s="30">
         <v>5</v>
       </c>
@@ -8036,14 +8028,14 @@
       <c r="U8" s="27">
         <v>4</v>
       </c>
-      <c r="V8" s="47">
+      <c r="V8" s="46">
         <f t="shared" si="0"/>
         <v>3.75</v>
       </c>
-      <c r="W8" s="42">
+      <c r="W8" s="41">
         <v>1.6</v>
       </c>
-      <c r="X8" s="42">
+      <c r="X8" s="41">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
@@ -8055,10 +8047,10 @@
       <c r="B9" s="24" t="s">
         <v>210</v>
       </c>
-      <c r="C9" s="52" t="s">
+      <c r="C9" s="54" t="s">
         <v>217</v>
       </c>
-      <c r="D9" s="53"/>
+      <c r="D9" s="55"/>
       <c r="E9" s="30">
         <v>5</v>
       </c>
@@ -8108,14 +8100,14 @@
       <c r="U9" s="27">
         <v>3</v>
       </c>
-      <c r="V9" s="47">
+      <c r="V9" s="46">
         <f t="shared" si="0"/>
         <v>3.8125</v>
       </c>
-      <c r="W9" s="42">
+      <c r="W9" s="41">
         <v>1.6</v>
       </c>
-      <c r="X9" s="42">
+      <c r="X9" s="41">
         <f t="shared" si="1"/>
         <v>6.1000000000000005</v>
       </c>
@@ -8127,10 +8119,10 @@
       <c r="B10" s="24" t="s">
         <v>210</v>
       </c>
-      <c r="C10" s="54" t="s">
+      <c r="C10" s="52" t="s">
         <v>218</v>
       </c>
-      <c r="D10" s="55"/>
+      <c r="D10" s="53"/>
       <c r="E10" s="30">
         <v>4</v>
       </c>
@@ -8180,14 +8172,14 @@
       <c r="U10" s="27">
         <v>3</v>
       </c>
-      <c r="V10" s="47">
+      <c r="V10" s="46">
         <f t="shared" si="0"/>
         <v>3.5625</v>
       </c>
-      <c r="W10" s="42">
+      <c r="W10" s="41">
         <v>1.6</v>
       </c>
-      <c r="X10" s="42">
+      <c r="X10" s="41">
         <f t="shared" si="1"/>
         <v>5.7</v>
       </c>
@@ -8199,10 +8191,10 @@
       <c r="B11" s="24" t="s">
         <v>210</v>
       </c>
-      <c r="C11" s="54" t="s">
+      <c r="C11" s="52" t="s">
         <v>219</v>
       </c>
-      <c r="D11" s="55"/>
+      <c r="D11" s="53"/>
       <c r="E11" s="30">
         <v>4</v>
       </c>
@@ -8252,14 +8244,14 @@
       <c r="U11" s="27">
         <v>4</v>
       </c>
-      <c r="V11" s="47">
+      <c r="V11" s="46">
         <f t="shared" si="0"/>
         <v>3.75</v>
       </c>
-      <c r="W11" s="42">
+      <c r="W11" s="41">
         <v>1.6</v>
       </c>
-      <c r="X11" s="42">
+      <c r="X11" s="41">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
@@ -8271,10 +8263,10 @@
       <c r="B12" s="24" t="s">
         <v>210</v>
       </c>
-      <c r="C12" s="54" t="s">
+      <c r="C12" s="52" t="s">
         <v>220</v>
       </c>
-      <c r="D12" s="55"/>
+      <c r="D12" s="53"/>
       <c r="E12" s="30">
         <v>5</v>
       </c>
@@ -8324,14 +8316,14 @@
       <c r="U12" s="27">
         <v>4</v>
       </c>
-      <c r="V12" s="47">
+      <c r="V12" s="46">
         <f t="shared" si="0"/>
         <v>3.8125</v>
       </c>
-      <c r="W12" s="42">
+      <c r="W12" s="41">
         <v>1.6</v>
       </c>
-      <c r="X12" s="42">
+      <c r="X12" s="41">
         <f t="shared" si="1"/>
         <v>6.1000000000000005</v>
       </c>
@@ -8343,10 +8335,10 @@
       <c r="B13" s="24" t="s">
         <v>211</v>
       </c>
-      <c r="C13" s="54" t="s">
+      <c r="C13" s="52" t="s">
         <v>221</v>
       </c>
-      <c r="D13" s="55"/>
+      <c r="D13" s="53"/>
       <c r="E13" s="30">
         <v>5</v>
       </c>
@@ -8396,14 +8388,14 @@
       <c r="U13" s="27">
         <v>3</v>
       </c>
-      <c r="V13" s="47">
+      <c r="V13" s="46">
         <f t="shared" si="0"/>
         <v>3.625</v>
       </c>
-      <c r="W13" s="42">
+      <c r="W13" s="41">
         <v>1.6</v>
       </c>
-      <c r="X13" s="42">
+      <c r="X13" s="41">
         <f t="shared" si="1"/>
         <v>5.8000000000000007</v>
       </c>
@@ -8415,10 +8407,10 @@
       <c r="B14" s="24" t="s">
         <v>211</v>
       </c>
-      <c r="C14" s="54" t="s">
+      <c r="C14" s="52" t="s">
         <v>225</v>
       </c>
-      <c r="D14" s="55"/>
+      <c r="D14" s="53"/>
       <c r="E14" s="30">
         <v>3</v>
       </c>
@@ -8468,14 +8460,14 @@
       <c r="U14" s="27">
         <v>4</v>
       </c>
-      <c r="V14" s="47">
+      <c r="V14" s="46">
         <f t="shared" si="0"/>
         <v>3.5625</v>
       </c>
-      <c r="W14" s="42">
+      <c r="W14" s="41">
         <v>1.6</v>
       </c>
-      <c r="X14" s="42">
+      <c r="X14" s="41">
         <f t="shared" si="1"/>
         <v>5.7</v>
       </c>
@@ -8487,10 +8479,10 @@
       <c r="B15" s="24" t="s">
         <v>211</v>
       </c>
-      <c r="C15" s="54" t="s">
+      <c r="C15" s="52" t="s">
         <v>226</v>
       </c>
-      <c r="D15" s="55"/>
+      <c r="D15" s="53"/>
       <c r="E15" s="30">
         <v>3</v>
       </c>
@@ -8540,14 +8532,14 @@
       <c r="U15" s="27">
         <v>3</v>
       </c>
-      <c r="V15" s="47">
+      <c r="V15" s="46">
         <f t="shared" si="0"/>
         <v>3.625</v>
       </c>
-      <c r="W15" s="42">
+      <c r="W15" s="41">
         <v>1.6</v>
       </c>
-      <c r="X15" s="42">
+      <c r="X15" s="41">
         <f t="shared" si="1"/>
         <v>5.8000000000000007</v>
       </c>
@@ -8559,10 +8551,10 @@
       <c r="B16" s="24" t="s">
         <v>211</v>
       </c>
-      <c r="C16" s="54" t="s">
+      <c r="C16" s="52" t="s">
         <v>227</v>
       </c>
-      <c r="D16" s="55"/>
+      <c r="D16" s="53"/>
       <c r="E16" s="30">
         <v>5</v>
       </c>
@@ -8612,14 +8604,14 @@
       <c r="U16" s="27">
         <v>4</v>
       </c>
-      <c r="V16" s="47">
+      <c r="V16" s="46">
         <f t="shared" si="0"/>
         <v>3.6875</v>
       </c>
-      <c r="W16" s="42">
+      <c r="W16" s="41">
         <v>1.6</v>
       </c>
-      <c r="X16" s="42">
+      <c r="X16" s="41">
         <f t="shared" si="1"/>
         <v>5.9</v>
       </c>
@@ -8631,10 +8623,10 @@
       <c r="B17" s="24" t="s">
         <v>211</v>
       </c>
-      <c r="C17" s="54" t="s">
+      <c r="C17" s="52" t="s">
         <v>228</v>
       </c>
-      <c r="D17" s="55"/>
+      <c r="D17" s="53"/>
       <c r="E17" s="30">
         <v>3</v>
       </c>
@@ -8684,14 +8676,14 @@
       <c r="U17" s="27">
         <v>3</v>
       </c>
-      <c r="V17" s="47">
+      <c r="V17" s="46">
         <f t="shared" si="0"/>
         <v>3.625</v>
       </c>
-      <c r="W17" s="42">
+      <c r="W17" s="41">
         <v>1.6</v>
       </c>
-      <c r="X17" s="42">
+      <c r="X17" s="41">
         <f t="shared" si="1"/>
         <v>5.8000000000000007</v>
       </c>
@@ -8703,10 +8695,10 @@
       <c r="B18" s="24" t="s">
         <v>211</v>
       </c>
-      <c r="C18" s="54" t="s">
+      <c r="C18" s="52" t="s">
         <v>229</v>
       </c>
-      <c r="D18" s="55"/>
+      <c r="D18" s="53"/>
       <c r="E18" s="30">
         <v>4</v>
       </c>
@@ -8756,14 +8748,14 @@
       <c r="U18" s="27">
         <v>4</v>
       </c>
-      <c r="V18" s="47">
+      <c r="V18" s="46">
         <f t="shared" si="0"/>
         <v>3.5</v>
       </c>
-      <c r="W18" s="42">
+      <c r="W18" s="41">
         <v>1.6</v>
       </c>
-      <c r="X18" s="42">
+      <c r="X18" s="41">
         <f t="shared" si="1"/>
         <v>5.6000000000000005</v>
       </c>
@@ -8775,10 +8767,10 @@
       <c r="B19" s="24" t="s">
         <v>212</v>
       </c>
-      <c r="C19" s="54" t="s">
+      <c r="C19" s="52" t="s">
         <v>230</v>
       </c>
-      <c r="D19" s="55"/>
+      <c r="D19" s="53"/>
       <c r="E19" s="30">
         <v>4</v>
       </c>
@@ -8828,14 +8820,14 @@
       <c r="U19" s="27">
         <v>4</v>
       </c>
-      <c r="V19" s="47">
+      <c r="V19" s="46">
         <f t="shared" si="0"/>
         <v>3.875</v>
       </c>
-      <c r="W19" s="42">
+      <c r="W19" s="41">
         <v>1.6</v>
       </c>
-      <c r="X19" s="42">
+      <c r="X19" s="41">
         <f t="shared" si="1"/>
         <v>6.2</v>
       </c>
@@ -8847,10 +8839,10 @@
       <c r="B20" s="24" t="s">
         <v>212</v>
       </c>
-      <c r="C20" s="54" t="s">
+      <c r="C20" s="52" t="s">
         <v>231</v>
       </c>
-      <c r="D20" s="55"/>
+      <c r="D20" s="53"/>
       <c r="E20" s="30">
         <v>5</v>
       </c>
@@ -8900,14 +8892,14 @@
       <c r="U20" s="27">
         <v>3</v>
       </c>
-      <c r="V20" s="47">
+      <c r="V20" s="46">
         <f t="shared" si="0"/>
         <v>3.5</v>
       </c>
-      <c r="W20" s="42">
+      <c r="W20" s="41">
         <v>1.6</v>
       </c>
-      <c r="X20" s="42">
+      <c r="X20" s="41">
         <f t="shared" si="1"/>
         <v>5.6000000000000005</v>
       </c>
@@ -8919,10 +8911,10 @@
       <c r="B21" s="24" t="s">
         <v>213</v>
       </c>
-      <c r="C21" s="54" t="s">
+      <c r="C21" s="52" t="s">
         <v>232</v>
       </c>
-      <c r="D21" s="55"/>
+      <c r="D21" s="53"/>
       <c r="E21" s="30">
         <v>4</v>
       </c>
@@ -8972,14 +8964,14 @@
       <c r="U21" s="27">
         <v>3</v>
       </c>
-      <c r="V21" s="47">
+      <c r="V21" s="46">
         <f t="shared" si="0"/>
         <v>3.5</v>
       </c>
-      <c r="W21" s="42">
+      <c r="W21" s="41">
         <v>1.6</v>
       </c>
-      <c r="X21" s="42">
+      <c r="X21" s="41">
         <f t="shared" si="1"/>
         <v>5.6000000000000005</v>
       </c>
@@ -8991,10 +8983,10 @@
       <c r="B22" s="24" t="s">
         <v>213</v>
       </c>
-      <c r="C22" s="54" t="s">
+      <c r="C22" s="52" t="s">
         <v>233</v>
       </c>
-      <c r="D22" s="55"/>
+      <c r="D22" s="53"/>
       <c r="E22" s="30">
         <v>4</v>
       </c>
@@ -9044,14 +9036,14 @@
       <c r="U22" s="27">
         <v>3</v>
       </c>
-      <c r="V22" s="47">
+      <c r="V22" s="46">
         <f t="shared" si="0"/>
         <v>3.5</v>
       </c>
-      <c r="W22" s="42">
+      <c r="W22" s="41">
         <v>1.6</v>
       </c>
-      <c r="X22" s="42">
+      <c r="X22" s="41">
         <f t="shared" si="1"/>
         <v>5.6000000000000005</v>
       </c>
@@ -9063,10 +9055,10 @@
       <c r="B23" s="24" t="s">
         <v>213</v>
       </c>
-      <c r="C23" s="54" t="s">
+      <c r="C23" s="52" t="s">
         <v>234</v>
       </c>
-      <c r="D23" s="55"/>
+      <c r="D23" s="53"/>
       <c r="E23" s="30">
         <v>4</v>
       </c>
@@ -9116,14 +9108,14 @@
       <c r="U23" s="27">
         <v>4</v>
       </c>
-      <c r="V23" s="47">
+      <c r="V23" s="46">
         <f t="shared" si="0"/>
         <v>3.625</v>
       </c>
-      <c r="W23" s="42">
+      <c r="W23" s="41">
         <v>1.6</v>
       </c>
-      <c r="X23" s="42">
+      <c r="X23" s="41">
         <f t="shared" si="1"/>
         <v>5.8000000000000007</v>
       </c>
@@ -9135,10 +9127,10 @@
       <c r="B24" s="24" t="s">
         <v>213</v>
       </c>
-      <c r="C24" s="52" t="s">
+      <c r="C24" s="54" t="s">
         <v>235</v>
       </c>
-      <c r="D24" s="53"/>
+      <c r="D24" s="55"/>
       <c r="E24" s="30">
         <v>4</v>
       </c>
@@ -9187,14 +9179,14 @@
       <c r="U24" s="27">
         <v>4</v>
       </c>
-      <c r="V24" s="47">
+      <c r="V24" s="46">
         <f t="shared" si="0"/>
         <v>3.625</v>
       </c>
-      <c r="W24" s="42">
+      <c r="W24" s="41">
         <v>1.6</v>
       </c>
-      <c r="X24" s="42">
+      <c r="X24" s="41">
         <f t="shared" si="1"/>
         <v>5.8000000000000007</v>
       </c>
@@ -9206,10 +9198,10 @@
       <c r="B25" s="24" t="s">
         <v>213</v>
       </c>
-      <c r="C25" s="52" t="s">
+      <c r="C25" s="54" t="s">
         <v>236</v>
       </c>
-      <c r="D25" s="53"/>
+      <c r="D25" s="55"/>
       <c r="E25" s="30">
         <v>5</v>
       </c>
@@ -9258,14 +9250,14 @@
       <c r="U25" s="27">
         <v>3</v>
       </c>
-      <c r="V25" s="47">
+      <c r="V25" s="46">
         <f t="shared" si="0"/>
         <v>3.9375</v>
       </c>
-      <c r="W25" s="42">
+      <c r="W25" s="41">
         <v>1.6</v>
       </c>
-      <c r="X25" s="42">
+      <c r="X25" s="41">
         <f t="shared" si="1"/>
         <v>6.3000000000000007</v>
       </c>
@@ -9277,10 +9269,10 @@
       <c r="B26" s="24" t="s">
         <v>213</v>
       </c>
-      <c r="C26" s="54" t="s">
+      <c r="C26" s="52" t="s">
         <v>237</v>
       </c>
-      <c r="D26" s="55"/>
+      <c r="D26" s="53"/>
       <c r="E26" s="30">
         <v>5</v>
       </c>
@@ -9329,14 +9321,14 @@
       <c r="U26" s="27">
         <v>4</v>
       </c>
-      <c r="V26" s="47">
+      <c r="V26" s="46">
         <f t="shared" si="0"/>
         <v>3.75</v>
       </c>
-      <c r="W26" s="42">
+      <c r="W26" s="41">
         <v>1.6</v>
       </c>
-      <c r="X26" s="42">
+      <c r="X26" s="41">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
@@ -9348,10 +9340,10 @@
       <c r="B27" s="24" t="s">
         <v>213</v>
       </c>
-      <c r="C27" s="52" t="s">
+      <c r="C27" s="54" t="s">
         <v>238</v>
       </c>
-      <c r="D27" s="53"/>
+      <c r="D27" s="55"/>
       <c r="E27" s="30">
         <v>5</v>
       </c>
@@ -9400,24 +9392,24 @@
       <c r="U27" s="27">
         <v>3</v>
       </c>
-      <c r="V27" s="47">
+      <c r="V27" s="46">
         <f t="shared" si="0"/>
         <v>3.8125</v>
       </c>
-      <c r="W27" s="42">
+      <c r="W27" s="41">
         <v>1.6</v>
       </c>
-      <c r="X27" s="42">
+      <c r="X27" s="41">
         <f t="shared" si="1"/>
         <v>6.1000000000000005</v>
       </c>
     </row>
     <row r="28" spans="1:24">
-      <c r="B28" s="51" t="s">
+      <c r="B28" s="50" t="s">
         <v>272</v>
       </c>
-      <c r="C28" s="51"/>
-      <c r="D28" s="51"/>
+      <c r="C28" s="50"/>
+      <c r="D28" s="50"/>
       <c r="E28">
         <f>SUM(E3:E27)</f>
         <v>106</v>
@@ -9486,8 +9478,8 @@
         <f t="shared" si="2"/>
         <v>90</v>
       </c>
-      <c r="V28" s="44"/>
-      <c r="X28" s="50">
+      <c r="V28" s="43"/>
+      <c r="X28" s="49">
         <f>SUM(X3:X27)</f>
         <v>145.89999999999998</v>
       </c>
@@ -9496,91 +9488,74 @@
       <c r="B30" s="19" t="s">
         <v>197</v>
       </c>
-      <c r="C30" s="57" t="s">
+      <c r="C30" s="56" t="s">
         <v>206</v>
       </c>
-      <c r="D30" s="57"/>
+      <c r="D30" s="56"/>
       <c r="E30" s="13"/>
     </row>
     <row r="31" spans="1:24" ht="51.75" customHeight="1">
       <c r="B31" s="1">
         <v>5</v>
       </c>
-      <c r="C31" s="58" t="s">
+      <c r="C31" s="57" t="s">
         <v>239</v>
       </c>
-      <c r="D31" s="58"/>
+      <c r="D31" s="57"/>
       <c r="E31" s="12"/>
     </row>
     <row r="32" spans="1:24" ht="33.75" customHeight="1">
       <c r="B32" s="1">
         <v>4</v>
       </c>
-      <c r="C32" s="56" t="s">
+      <c r="C32" s="51" t="s">
         <v>240</v>
       </c>
-      <c r="D32" s="56"/>
+      <c r="D32" s="51"/>
       <c r="E32" s="12"/>
     </row>
     <row r="33" spans="2:5" ht="30" customHeight="1">
       <c r="B33" s="1">
         <v>3</v>
       </c>
-      <c r="C33" s="56" t="s">
+      <c r="C33" s="51" t="s">
         <v>241</v>
       </c>
-      <c r="D33" s="56"/>
+      <c r="D33" s="51"/>
       <c r="E33" s="12"/>
     </row>
     <row r="34" spans="2:5" ht="31.5" customHeight="1">
       <c r="B34" s="1">
         <v>2</v>
       </c>
-      <c r="C34" s="56" t="s">
+      <c r="C34" s="51" t="s">
         <v>242</v>
       </c>
-      <c r="D34" s="56"/>
+      <c r="D34" s="51"/>
       <c r="E34" s="12"/>
     </row>
     <row r="35" spans="2:5" ht="39" customHeight="1">
       <c r="B35" s="1">
         <v>1</v>
       </c>
-      <c r="C35" s="56" t="s">
+      <c r="C35" s="51" t="s">
         <v>243</v>
       </c>
-      <c r="D35" s="56"/>
+      <c r="D35" s="51"/>
       <c r="E35" s="12"/>
     </row>
     <row r="36" spans="2:5" ht="36.75" customHeight="1">
       <c r="B36" s="1">
         <v>0</v>
       </c>
-      <c r="C36" s="56" t="s">
+      <c r="C36" s="51" t="s">
         <v>244</v>
       </c>
-      <c r="D36" s="56"/>
+      <c r="D36" s="51"/>
       <c r="E36" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C18:D18"/>
     <mergeCell ref="C24:D24"/>
     <mergeCell ref="C23:D23"/>
     <mergeCell ref="C3:D3"/>
@@ -9597,6 +9572,23 @@
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C27:D27"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -9612,10 +9604,10 @@
   <dimension ref="A1:X32"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="E21" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="T26" sqref="T26"/>
+      <selection pane="bottomRight" activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9625,7 +9617,7 @@
     <col min="4" max="4" width="90.85546875" customWidth="1"/>
     <col min="5" max="5" width="10.140625" customWidth="1"/>
     <col min="6" max="6" width="8.7109375" customWidth="1"/>
-    <col min="22" max="22" width="8.7109375" style="44" customWidth="1"/>
+    <col min="22" max="22" width="8.7109375" style="43" customWidth="1"/>
     <col min="23" max="23" width="10.28515625" customWidth="1"/>
     <col min="24" max="24" width="9.85546875" customWidth="1"/>
   </cols>
@@ -9637,7 +9629,7 @@
       <c r="D1" s="25" t="s">
         <v>246</v>
       </c>
-      <c r="E1" s="43" t="s">
+      <c r="E1" s="42" t="s">
         <v>323</v>
       </c>
     </row>
@@ -9694,13 +9686,13 @@
       <c r="U2" s="38" t="s">
         <v>342</v>
       </c>
-      <c r="V2" s="45" t="s">
+      <c r="V2" s="44" t="s">
         <v>324</v>
       </c>
-      <c r="W2" s="46" t="s">
+      <c r="W2" s="45" t="s">
         <v>301</v>
       </c>
-      <c r="X2" s="46" t="s">
+      <c r="X2" s="45" t="s">
         <v>325</v>
       </c>
     </row>
@@ -9765,14 +9757,14 @@
       <c r="U3" s="27">
         <v>4</v>
       </c>
-      <c r="V3" s="47">
+      <c r="V3" s="46">
         <f>AVERAGE(E3:U3)</f>
         <v>3.4375</v>
       </c>
-      <c r="W3" s="42">
+      <c r="W3" s="41">
         <v>2</v>
       </c>
-      <c r="X3" s="42">
+      <c r="X3" s="41">
         <f>V3*W3</f>
         <v>6.875</v>
       </c>
@@ -9838,14 +9830,14 @@
       <c r="U4" s="27">
         <v>3</v>
       </c>
-      <c r="V4" s="47">
+      <c r="V4" s="46">
         <f t="shared" ref="V4:V22" si="0">AVERAGE(E4:U4)</f>
         <v>3.625</v>
       </c>
-      <c r="W4" s="42">
+      <c r="W4" s="41">
         <v>2</v>
       </c>
-      <c r="X4" s="42">
+      <c r="X4" s="41">
         <f t="shared" ref="X4:X22" si="1">V4*W4</f>
         <v>7.25</v>
       </c>
@@ -9911,14 +9903,14 @@
       <c r="U5" s="27">
         <v>4</v>
       </c>
-      <c r="V5" s="47">
+      <c r="V5" s="46">
         <f t="shared" si="0"/>
         <v>3.375</v>
       </c>
-      <c r="W5" s="42">
+      <c r="W5" s="41">
         <v>2</v>
       </c>
-      <c r="X5" s="42">
+      <c r="X5" s="41">
         <f t="shared" si="1"/>
         <v>6.75</v>
       </c>
@@ -9984,14 +9976,14 @@
       <c r="U6" s="27">
         <v>3</v>
       </c>
-      <c r="V6" s="47">
+      <c r="V6" s="46">
         <f t="shared" si="0"/>
         <v>3.5625</v>
       </c>
-      <c r="W6" s="42">
+      <c r="W6" s="41">
         <v>2</v>
       </c>
-      <c r="X6" s="42">
+      <c r="X6" s="41">
         <f t="shared" si="1"/>
         <v>7.125</v>
       </c>
@@ -10057,14 +10049,14 @@
       <c r="U7" s="27">
         <v>3</v>
       </c>
-      <c r="V7" s="47">
+      <c r="V7" s="46">
         <f t="shared" si="0"/>
         <v>3.6875</v>
       </c>
-      <c r="W7" s="42">
+      <c r="W7" s="41">
         <v>2</v>
       </c>
-      <c r="X7" s="42">
+      <c r="X7" s="41">
         <f t="shared" si="1"/>
         <v>7.375</v>
       </c>
@@ -10130,14 +10122,14 @@
       <c r="U8" s="27">
         <v>4</v>
       </c>
-      <c r="V8" s="47">
+      <c r="V8" s="46">
         <f t="shared" si="0"/>
         <v>3.9375</v>
       </c>
-      <c r="W8" s="42">
+      <c r="W8" s="41">
         <v>2</v>
       </c>
-      <c r="X8" s="42">
+      <c r="X8" s="41">
         <f t="shared" si="1"/>
         <v>7.875</v>
       </c>
@@ -10203,14 +10195,14 @@
       <c r="U9" s="27">
         <v>3</v>
       </c>
-      <c r="V9" s="47">
+      <c r="V9" s="46">
         <f t="shared" si="0"/>
         <v>3.875</v>
       </c>
-      <c r="W9" s="42">
+      <c r="W9" s="41">
         <v>2</v>
       </c>
-      <c r="X9" s="42">
+      <c r="X9" s="41">
         <f t="shared" si="1"/>
         <v>7.75</v>
       </c>
@@ -10276,14 +10268,14 @@
       <c r="U10" s="27">
         <v>3</v>
       </c>
-      <c r="V10" s="47">
+      <c r="V10" s="46">
         <f t="shared" si="0"/>
         <v>3.3125</v>
       </c>
-      <c r="W10" s="42">
+      <c r="W10" s="41">
         <v>2</v>
       </c>
-      <c r="X10" s="42">
+      <c r="X10" s="41">
         <f t="shared" si="1"/>
         <v>6.625</v>
       </c>
@@ -10349,14 +10341,14 @@
       <c r="U11" s="27">
         <v>3</v>
       </c>
-      <c r="V11" s="47">
+      <c r="V11" s="46">
         <f t="shared" si="0"/>
         <v>3.5625</v>
       </c>
-      <c r="W11" s="42">
+      <c r="W11" s="41">
         <v>2</v>
       </c>
-      <c r="X11" s="42">
+      <c r="X11" s="41">
         <f t="shared" si="1"/>
         <v>7.125</v>
       </c>
@@ -10422,14 +10414,14 @@
       <c r="U12" s="27">
         <v>3</v>
       </c>
-      <c r="V12" s="47">
+      <c r="V12" s="46">
         <f t="shared" si="0"/>
         <v>3.75</v>
       </c>
-      <c r="W12" s="42">
+      <c r="W12" s="41">
         <v>2</v>
       </c>
-      <c r="X12" s="42">
+      <c r="X12" s="41">
         <f t="shared" si="1"/>
         <v>7.5</v>
       </c>
@@ -10495,14 +10487,14 @@
       <c r="U13" s="27">
         <v>3</v>
       </c>
-      <c r="V13" s="47">
+      <c r="V13" s="46">
         <f t="shared" si="0"/>
         <v>3.6875</v>
       </c>
-      <c r="W13" s="42">
+      <c r="W13" s="41">
         <v>2</v>
       </c>
-      <c r="X13" s="42">
+      <c r="X13" s="41">
         <f t="shared" si="1"/>
         <v>7.375</v>
       </c>
@@ -10568,14 +10560,14 @@
       <c r="U14" s="27">
         <v>4</v>
       </c>
-      <c r="V14" s="47">
+      <c r="V14" s="46">
         <f t="shared" si="0"/>
         <v>3.625</v>
       </c>
-      <c r="W14" s="42">
+      <c r="W14" s="41">
         <v>2</v>
       </c>
-      <c r="X14" s="42">
+      <c r="X14" s="41">
         <f t="shared" si="1"/>
         <v>7.25</v>
       </c>
@@ -10641,14 +10633,14 @@
       <c r="U15" s="27">
         <v>4</v>
       </c>
-      <c r="V15" s="47">
+      <c r="V15" s="46">
         <f t="shared" si="0"/>
         <v>3.8125</v>
       </c>
-      <c r="W15" s="42">
+      <c r="W15" s="41">
         <v>2</v>
       </c>
-      <c r="X15" s="42">
+      <c r="X15" s="41">
         <f t="shared" si="1"/>
         <v>7.625</v>
       </c>
@@ -10714,14 +10706,14 @@
       <c r="U16" s="27">
         <v>3</v>
       </c>
-      <c r="V16" s="47">
+      <c r="V16" s="46">
         <f t="shared" si="0"/>
         <v>3.6875</v>
       </c>
-      <c r="W16" s="42">
+      <c r="W16" s="41">
         <v>2</v>
       </c>
-      <c r="X16" s="42">
+      <c r="X16" s="41">
         <f t="shared" si="1"/>
         <v>7.375</v>
       </c>
@@ -10787,14 +10779,14 @@
       <c r="U17" s="27">
         <v>3</v>
       </c>
-      <c r="V17" s="47">
+      <c r="V17" s="46">
         <f t="shared" si="0"/>
         <v>3.8125</v>
       </c>
-      <c r="W17" s="42">
+      <c r="W17" s="41">
         <v>2</v>
       </c>
-      <c r="X17" s="42">
+      <c r="X17" s="41">
         <f t="shared" si="1"/>
         <v>7.625</v>
       </c>
@@ -10860,14 +10852,14 @@
       <c r="U18" s="27">
         <v>3</v>
       </c>
-      <c r="V18" s="47">
+      <c r="V18" s="46">
         <f t="shared" si="0"/>
         <v>3.5625</v>
       </c>
-      <c r="W18" s="42">
+      <c r="W18" s="41">
         <v>2</v>
       </c>
-      <c r="X18" s="42">
+      <c r="X18" s="41">
         <f t="shared" si="1"/>
         <v>7.125</v>
       </c>
@@ -10933,14 +10925,14 @@
       <c r="U19" s="27">
         <v>3</v>
       </c>
-      <c r="V19" s="47">
+      <c r="V19" s="46">
         <f t="shared" si="0"/>
         <v>3.6875</v>
       </c>
-      <c r="W19" s="42">
+      <c r="W19" s="41">
         <v>2</v>
       </c>
-      <c r="X19" s="42">
+      <c r="X19" s="41">
         <f t="shared" si="1"/>
         <v>7.375</v>
       </c>
@@ -11006,14 +10998,14 @@
       <c r="U20" s="27">
         <v>4</v>
       </c>
-      <c r="V20" s="47">
+      <c r="V20" s="46">
         <f t="shared" si="0"/>
         <v>3.8125</v>
       </c>
-      <c r="W20" s="42">
+      <c r="W20" s="41">
         <v>2</v>
       </c>
-      <c r="X20" s="42">
+      <c r="X20" s="41">
         <f t="shared" si="1"/>
         <v>7.625</v>
       </c>
@@ -11079,14 +11071,14 @@
       <c r="U21" s="27">
         <v>3</v>
       </c>
-      <c r="V21" s="47">
+      <c r="V21" s="46">
         <f t="shared" si="0"/>
         <v>3.8125</v>
       </c>
-      <c r="W21" s="42">
+      <c r="W21" s="41">
         <v>2</v>
       </c>
-      <c r="X21" s="42">
+      <c r="X21" s="41">
         <f t="shared" si="1"/>
         <v>7.625</v>
       </c>
@@ -11152,24 +11144,24 @@
       <c r="U22" s="27">
         <v>4</v>
       </c>
-      <c r="V22" s="47">
+      <c r="V22" s="46">
         <f t="shared" si="0"/>
         <v>3.75</v>
       </c>
-      <c r="W22" s="42">
+      <c r="W22" s="41">
         <v>2</v>
       </c>
-      <c r="X22" s="42">
+      <c r="X22" s="41">
         <f t="shared" si="1"/>
         <v>7.5</v>
       </c>
     </row>
     <row r="23" spans="1:24" ht="15.75">
-      <c r="B23" s="59" t="s">
+      <c r="B23" s="58" t="s">
         <v>279</v>
       </c>
-      <c r="C23" s="60"/>
-      <c r="D23" s="61"/>
+      <c r="C23" s="59"/>
+      <c r="D23" s="60"/>
       <c r="E23" s="34">
         <f t="shared" ref="E23:L23" si="2">SUM(E3:E22)</f>
         <v>84</v>
@@ -11239,14 +11231,14 @@
         <v>67</v>
       </c>
       <c r="V23"/>
-      <c r="X23" s="48">
+      <c r="X23" s="47">
         <f>SUM(X2:X22)</f>
         <v>146.75</v>
       </c>
     </row>
     <row r="24" spans="1:24">
       <c r="V24"/>
-      <c r="X24" s="49">
+      <c r="X24" s="48">
         <f>X23+'熱意- nhiet_tinh'!X28+'考え方- tu_duy'!W28</f>
         <v>439.15</v>
       </c>
@@ -11258,66 +11250,66 @@
       <c r="B26" s="29" t="s">
         <v>263</v>
       </c>
-      <c r="C26" s="62" t="s">
+      <c r="C26" s="61" t="s">
         <v>264</v>
       </c>
-      <c r="D26" s="62"/>
+      <c r="D26" s="61"/>
       <c r="V26"/>
     </row>
     <row r="27" spans="1:24" ht="31.5" customHeight="1">
       <c r="B27" s="28">
         <v>5</v>
       </c>
-      <c r="C27" s="63" t="s">
+      <c r="C27" s="62" t="s">
         <v>265</v>
       </c>
-      <c r="D27" s="64"/>
+      <c r="D27" s="63"/>
       <c r="V27"/>
     </row>
     <row r="28" spans="1:24" ht="31.5" customHeight="1">
       <c r="B28" s="28">
         <v>4</v>
       </c>
-      <c r="C28" s="63" t="s">
+      <c r="C28" s="62" t="s">
         <v>266</v>
       </c>
-      <c r="D28" s="64"/>
+      <c r="D28" s="63"/>
     </row>
     <row r="29" spans="1:24" ht="31.5" customHeight="1">
       <c r="B29" s="28">
         <v>3</v>
       </c>
-      <c r="C29" s="63" t="s">
+      <c r="C29" s="62" t="s">
         <v>267</v>
       </c>
-      <c r="D29" s="64"/>
+      <c r="D29" s="63"/>
     </row>
     <row r="30" spans="1:24" ht="31.5" customHeight="1">
       <c r="B30" s="28">
         <v>2</v>
       </c>
-      <c r="C30" s="63" t="s">
+      <c r="C30" s="62" t="s">
         <v>268</v>
       </c>
-      <c r="D30" s="64"/>
+      <c r="D30" s="63"/>
     </row>
     <row r="31" spans="1:24" ht="31.5" customHeight="1">
       <c r="B31" s="28">
         <v>1</v>
       </c>
-      <c r="C31" s="63" t="s">
+      <c r="C31" s="62" t="s">
         <v>269</v>
       </c>
-      <c r="D31" s="64"/>
+      <c r="D31" s="63"/>
     </row>
     <row r="32" spans="1:24" ht="31.5" customHeight="1">
       <c r="B32" s="28">
         <v>0</v>
       </c>
-      <c r="C32" s="63" t="s">
+      <c r="C32" s="62" t="s">
         <v>270</v>
       </c>
-      <c r="D32" s="64"/>
+      <c r="D32" s="63"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -11343,10 +11335,10 @@
   <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C24" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F26" sqref="F26"/>
+      <selection pane="bottomRight" activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11365,7 +11357,7 @@
       <c r="D1" s="25" t="s">
         <v>246</v>
       </c>
-      <c r="E1" s="43" t="s">
+      <c r="E1" s="42" t="s">
         <v>323</v>
       </c>
     </row>
@@ -11778,11 +11770,11 @@
       </c>
     </row>
     <row r="23" spans="1:6" ht="15.75">
-      <c r="B23" s="59" t="s">
+      <c r="B23" s="58" t="s">
         <v>279</v>
       </c>
-      <c r="C23" s="60"/>
-      <c r="D23" s="61"/>
+      <c r="C23" s="59"/>
+      <c r="D23" s="60"/>
       <c r="E23" s="34">
         <f>SUM(E3:E22)</f>
         <v>62</v>
@@ -11796,64 +11788,64 @@
       <c r="B26" s="29" t="s">
         <v>263</v>
       </c>
-      <c r="C26" s="62" t="s">
+      <c r="C26" s="61" t="s">
         <v>264</v>
       </c>
-      <c r="D26" s="62"/>
+      <c r="D26" s="61"/>
     </row>
     <row r="27" spans="1:6" ht="31.5" customHeight="1">
       <c r="B27" s="28">
         <v>5</v>
       </c>
-      <c r="C27" s="63" t="s">
+      <c r="C27" s="62" t="s">
         <v>265</v>
       </c>
-      <c r="D27" s="64"/>
+      <c r="D27" s="63"/>
     </row>
     <row r="28" spans="1:6" ht="31.5" customHeight="1">
       <c r="B28" s="28">
         <v>4</v>
       </c>
-      <c r="C28" s="63" t="s">
+      <c r="C28" s="62" t="s">
         <v>266</v>
       </c>
-      <c r="D28" s="64"/>
+      <c r="D28" s="63"/>
     </row>
     <row r="29" spans="1:6" ht="31.5" customHeight="1">
       <c r="B29" s="28">
         <v>3</v>
       </c>
-      <c r="C29" s="63" t="s">
+      <c r="C29" s="62" t="s">
         <v>267</v>
       </c>
-      <c r="D29" s="64"/>
+      <c r="D29" s="63"/>
     </row>
     <row r="30" spans="1:6" ht="31.5" customHeight="1">
       <c r="B30" s="28">
         <v>2</v>
       </c>
-      <c r="C30" s="63" t="s">
+      <c r="C30" s="62" t="s">
         <v>268</v>
       </c>
-      <c r="D30" s="64"/>
+      <c r="D30" s="63"/>
     </row>
     <row r="31" spans="1:6" ht="31.5" customHeight="1">
       <c r="B31" s="28">
         <v>1</v>
       </c>
-      <c r="C31" s="63" t="s">
+      <c r="C31" s="62" t="s">
         <v>269</v>
       </c>
-      <c r="D31" s="64"/>
+      <c r="D31" s="63"/>
     </row>
     <row r="32" spans="1:6" ht="31.5" customHeight="1">
       <c r="B32" s="28">
         <v>0</v>
       </c>
-      <c r="C32" s="63" t="s">
+      <c r="C32" s="62" t="s">
         <v>270</v>
       </c>
-      <c r="D32" s="64"/>
+      <c r="D32" s="63"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -11876,13 +11868,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C18" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H19" sqref="H19"/>
+      <selection pane="bottomRight" activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11890,34 +11882,30 @@
     <col min="1" max="1" width="11.7109375" customWidth="1"/>
     <col min="3" max="3" width="5.42578125" style="22" customWidth="1"/>
     <col min="4" max="4" width="83.28515625" customWidth="1"/>
-    <col min="5" max="5" width="12" customWidth="1"/>
-    <col min="6" max="6" width="12" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="12.42578125" customWidth="1"/>
+    <col min="5" max="5" width="85.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="33.75">
+    <row r="1" spans="1:6" ht="33.75">
       <c r="A1" s="15" t="s">
         <v>245</v>
       </c>
       <c r="D1" s="25" t="s">
         <v>246</v>
       </c>
-      <c r="E1" s="43" t="s">
+      <c r="E1" s="42" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="63">
+    <row r="2" spans="1:6" ht="63">
       <c r="E2" s="38" t="s">
         <v>344</v>
       </c>
-      <c r="F2" s="40" t="s">
-        <v>301</v>
-      </c>
-      <c r="G2" s="38" t="s">
+      <c r="F2" s="38" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="27" customFormat="1" ht="31.5">
+    <row r="3" spans="1:6" s="27" customFormat="1" ht="31.5">
       <c r="A3" s="26" t="s">
         <v>302</v>
       </c>
@@ -11930,15 +11918,14 @@
       <c r="D3" s="32" t="s">
         <v>303</v>
       </c>
-      <c r="E3" s="41">
-        <v>3</v>
-      </c>
-      <c r="F3" s="42"/>
-      <c r="G3" s="41">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" s="27" customFormat="1" ht="29.1" customHeight="1">
+      <c r="E3" s="40">
+        <v>3</v>
+      </c>
+      <c r="F3" s="40">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" s="27" customFormat="1" ht="29.1" customHeight="1">
       <c r="A4" s="26" t="s">
         <v>302</v>
       </c>
@@ -11951,15 +11938,14 @@
       <c r="D4" s="32" t="s">
         <v>304</v>
       </c>
-      <c r="E4" s="41">
-        <v>3</v>
-      </c>
-      <c r="F4" s="42"/>
-      <c r="G4" s="41">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" s="27" customFormat="1" ht="29.1" customHeight="1">
+      <c r="E4" s="40">
+        <v>3</v>
+      </c>
+      <c r="F4" s="40">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" s="27" customFormat="1" ht="29.1" customHeight="1">
       <c r="A5" s="26" t="s">
         <v>302</v>
       </c>
@@ -11972,15 +11958,14 @@
       <c r="D5" s="32" t="s">
         <v>305</v>
       </c>
-      <c r="E5" s="41">
-        <v>4</v>
-      </c>
-      <c r="F5" s="42"/>
-      <c r="G5" s="41">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" s="27" customFormat="1" ht="31.5">
+      <c r="E5" s="40">
+        <v>4</v>
+      </c>
+      <c r="F5" s="40">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" s="27" customFormat="1" ht="31.5">
       <c r="A6" s="26" t="s">
         <v>302</v>
       </c>
@@ -11993,15 +11978,14 @@
       <c r="D6" s="32" t="s">
         <v>306</v>
       </c>
-      <c r="E6" s="41">
-        <v>4</v>
-      </c>
-      <c r="F6" s="42"/>
-      <c r="G6" s="41">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" s="27" customFormat="1" ht="31.5">
+      <c r="E6" s="40">
+        <v>4</v>
+      </c>
+      <c r="F6" s="40">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" s="27" customFormat="1" ht="31.5">
       <c r="A7" s="26" t="s">
         <v>302</v>
       </c>
@@ -12014,15 +11998,14 @@
       <c r="D7" s="32" t="s">
         <v>307</v>
       </c>
-      <c r="E7" s="41">
-        <v>3</v>
-      </c>
-      <c r="F7" s="42"/>
-      <c r="G7" s="41">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" s="27" customFormat="1" ht="31.5">
+      <c r="E7" s="40">
+        <v>3</v>
+      </c>
+      <c r="F7" s="40">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" s="27" customFormat="1" ht="31.5">
       <c r="A8" s="26" t="s">
         <v>302</v>
       </c>
@@ -12035,15 +12018,14 @@
       <c r="D8" s="32" t="s">
         <v>308</v>
       </c>
-      <c r="E8" s="41">
-        <v>3</v>
-      </c>
-      <c r="F8" s="42"/>
-      <c r="G8" s="41">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" s="27" customFormat="1" ht="33.6" customHeight="1">
+      <c r="E8" s="40">
+        <v>3</v>
+      </c>
+      <c r="F8" s="40">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" s="27" customFormat="1" ht="33.6" customHeight="1">
       <c r="A9" s="26" t="s">
         <v>302</v>
       </c>
@@ -12056,15 +12038,14 @@
       <c r="D9" s="32" t="s">
         <v>309</v>
       </c>
-      <c r="E9" s="41">
-        <v>4</v>
-      </c>
-      <c r="F9" s="42"/>
-      <c r="G9" s="41">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" s="27" customFormat="1" ht="31.5">
+      <c r="E9" s="40">
+        <v>4</v>
+      </c>
+      <c r="F9" s="40">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" s="27" customFormat="1" ht="31.5">
       <c r="A10" s="26" t="s">
         <v>302</v>
       </c>
@@ -12077,15 +12058,14 @@
       <c r="D10" s="32" t="s">
         <v>310</v>
       </c>
-      <c r="E10" s="41">
-        <v>4</v>
-      </c>
-      <c r="F10" s="42"/>
-      <c r="G10" s="41">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" s="27" customFormat="1" ht="31.5">
+      <c r="E10" s="40">
+        <v>4</v>
+      </c>
+      <c r="F10" s="40">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" s="27" customFormat="1" ht="31.5">
       <c r="A11" s="26" t="s">
         <v>302</v>
       </c>
@@ -12098,15 +12078,14 @@
       <c r="D11" s="32" t="s">
         <v>311</v>
       </c>
-      <c r="E11" s="41">
-        <v>3</v>
-      </c>
-      <c r="F11" s="42"/>
-      <c r="G11" s="41">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" s="27" customFormat="1" ht="31.5">
+      <c r="E11" s="40">
+        <v>3</v>
+      </c>
+      <c r="F11" s="40">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" s="27" customFormat="1" ht="31.5">
       <c r="A12" s="26" t="s">
         <v>302</v>
       </c>
@@ -12119,15 +12098,14 @@
       <c r="D12" s="32" t="s">
         <v>312</v>
       </c>
-      <c r="E12" s="41">
-        <v>4</v>
-      </c>
-      <c r="F12" s="42"/>
-      <c r="G12" s="41">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" s="27" customFormat="1" ht="31.5">
+      <c r="E12" s="40">
+        <v>4</v>
+      </c>
+      <c r="F12" s="40">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" s="27" customFormat="1" ht="31.5">
       <c r="A13" s="26" t="s">
         <v>302</v>
       </c>
@@ -12140,15 +12118,14 @@
       <c r="D13" s="32" t="s">
         <v>313</v>
       </c>
-      <c r="E13" s="41">
-        <v>4</v>
-      </c>
-      <c r="F13" s="42"/>
-      <c r="G13" s="41">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" s="27" customFormat="1" ht="31.5">
+      <c r="E13" s="40">
+        <v>4</v>
+      </c>
+      <c r="F13" s="40">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" s="27" customFormat="1" ht="31.5">
       <c r="A14" s="26" t="s">
         <v>302</v>
       </c>
@@ -12161,15 +12138,14 @@
       <c r="D14" s="32" t="s">
         <v>314</v>
       </c>
-      <c r="E14" s="41">
-        <v>3</v>
-      </c>
-      <c r="F14" s="42"/>
-      <c r="G14" s="41">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" s="27" customFormat="1" ht="31.5">
+      <c r="E14" s="40">
+        <v>3</v>
+      </c>
+      <c r="F14" s="40">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" s="27" customFormat="1" ht="31.5">
       <c r="A15" s="26" t="s">
         <v>302</v>
       </c>
@@ -12182,15 +12158,14 @@
       <c r="D15" s="32" t="s">
         <v>315</v>
       </c>
-      <c r="E15" s="41">
-        <v>4</v>
-      </c>
-      <c r="F15" s="42"/>
-      <c r="G15" s="41">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" s="27" customFormat="1" ht="31.5">
+      <c r="E15" s="40">
+        <v>4</v>
+      </c>
+      <c r="F15" s="40">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" s="27" customFormat="1" ht="31.5">
       <c r="A16" s="26" t="s">
         <v>302</v>
       </c>
@@ -12203,15 +12178,14 @@
       <c r="D16" s="32" t="s">
         <v>316</v>
       </c>
-      <c r="E16" s="41">
-        <v>4</v>
-      </c>
-      <c r="F16" s="42"/>
-      <c r="G16" s="41">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" s="27" customFormat="1" ht="31.5">
+      <c r="E16" s="40">
+        <v>4</v>
+      </c>
+      <c r="F16" s="40">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" s="27" customFormat="1" ht="31.5">
       <c r="A17" s="26" t="s">
         <v>302</v>
       </c>
@@ -12224,15 +12198,14 @@
       <c r="D17" s="32" t="s">
         <v>317</v>
       </c>
-      <c r="E17" s="41">
-        <v>3</v>
-      </c>
-      <c r="F17" s="42"/>
-      <c r="G17" s="41">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" s="27" customFormat="1" ht="15.75">
+      <c r="E17" s="40">
+        <v>3</v>
+      </c>
+      <c r="F17" s="40">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" s="27" customFormat="1" ht="15.75">
       <c r="A18" s="26" t="s">
         <v>302</v>
       </c>
@@ -12245,15 +12218,14 @@
       <c r="D18" s="31" t="s">
         <v>318</v>
       </c>
-      <c r="E18" s="41">
-        <v>3</v>
-      </c>
-      <c r="F18" s="42"/>
-      <c r="G18" s="41">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" s="27" customFormat="1" ht="47.1" customHeight="1">
+      <c r="E18" s="40">
+        <v>3</v>
+      </c>
+      <c r="F18" s="40">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" s="27" customFormat="1" ht="47.1" customHeight="1">
       <c r="A19" s="26" t="s">
         <v>302</v>
       </c>
@@ -12266,15 +12238,14 @@
       <c r="D19" s="32" t="s">
         <v>319</v>
       </c>
-      <c r="E19" s="41">
-        <v>3</v>
-      </c>
-      <c r="F19" s="42"/>
-      <c r="G19" s="41">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" s="27" customFormat="1" ht="15.75">
+      <c r="E19" s="40">
+        <v>3</v>
+      </c>
+      <c r="F19" s="40">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" s="27" customFormat="1" ht="15.75">
       <c r="A20" s="26" t="s">
         <v>302</v>
       </c>
@@ -12287,15 +12258,14 @@
       <c r="D20" s="31" t="s">
         <v>320</v>
       </c>
-      <c r="E20" s="41">
-        <v>4</v>
-      </c>
-      <c r="F20" s="42"/>
-      <c r="G20" s="41">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" s="27" customFormat="1" ht="31.5">
+      <c r="E20" s="40">
+        <v>4</v>
+      </c>
+      <c r="F20" s="40">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" s="27" customFormat="1" ht="31.5">
       <c r="A21" s="26" t="s">
         <v>302</v>
       </c>
@@ -12308,15 +12278,14 @@
       <c r="D21" s="32" t="s">
         <v>321</v>
       </c>
-      <c r="E21" s="41">
-        <v>3</v>
-      </c>
-      <c r="F21" s="42"/>
-      <c r="G21" s="41">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" s="27" customFormat="1" ht="31.5">
+      <c r="E21" s="40">
+        <v>3</v>
+      </c>
+      <c r="F21" s="40">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" s="27" customFormat="1" ht="31.5">
       <c r="A22" s="26" t="s">
         <v>302</v>
       </c>
@@ -12329,95 +12298,90 @@
       <c r="D22" s="32" t="s">
         <v>322</v>
       </c>
-      <c r="E22" s="41">
-        <v>3</v>
-      </c>
-      <c r="F22" s="42"/>
-      <c r="G22" s="41">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="15.75">
-      <c r="B23" s="65" t="s">
+      <c r="E22" s="40">
+        <v>3</v>
+      </c>
+      <c r="F22" s="40">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="15.75">
+      <c r="B23" s="64" t="s">
         <v>279</v>
       </c>
-      <c r="C23" s="66"/>
-      <c r="D23" s="67"/>
+      <c r="C23" s="65"/>
+      <c r="D23" s="66"/>
       <c r="E23" s="34">
         <f>SUM(E3:E22)</f>
         <v>69</v>
       </c>
       <c r="F23" s="34">
-        <f t="shared" ref="F23:G23" si="0">SUM(F3:F22)</f>
-        <v>0</v>
-      </c>
-      <c r="G23" s="34">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="F23" si="0">SUM(F3:F22)</f>
         <v>68</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="60">
+    <row r="26" spans="1:6" ht="60">
       <c r="B26" s="29" t="s">
         <v>263</v>
       </c>
-      <c r="C26" s="62" t="s">
+      <c r="C26" s="61" t="s">
         <v>264</v>
       </c>
-      <c r="D26" s="62"/>
-    </row>
-    <row r="27" spans="1:7" ht="31.5" customHeight="1">
+      <c r="D26" s="61"/>
+    </row>
+    <row r="27" spans="1:6" ht="31.5" customHeight="1">
       <c r="B27" s="28">
         <v>5</v>
       </c>
-      <c r="C27" s="63" t="s">
+      <c r="C27" s="62" t="s">
         <v>265</v>
       </c>
-      <c r="D27" s="64"/>
-    </row>
-    <row r="28" spans="1:7" ht="31.5" customHeight="1">
+      <c r="D27" s="63"/>
+    </row>
+    <row r="28" spans="1:6" ht="31.5" customHeight="1">
       <c r="B28" s="28">
         <v>4</v>
       </c>
-      <c r="C28" s="63" t="s">
+      <c r="C28" s="62" t="s">
         <v>266</v>
       </c>
-      <c r="D28" s="64"/>
-    </row>
-    <row r="29" spans="1:7" ht="31.5" customHeight="1">
+      <c r="D28" s="63"/>
+    </row>
+    <row r="29" spans="1:6" ht="31.5" customHeight="1">
       <c r="B29" s="28">
         <v>3</v>
       </c>
-      <c r="C29" s="63" t="s">
+      <c r="C29" s="62" t="s">
         <v>267</v>
       </c>
-      <c r="D29" s="64"/>
-    </row>
-    <row r="30" spans="1:7" ht="31.5" customHeight="1">
+      <c r="D29" s="63"/>
+    </row>
+    <row r="30" spans="1:6" ht="31.5" customHeight="1">
       <c r="B30" s="28">
         <v>2</v>
       </c>
-      <c r="C30" s="63" t="s">
+      <c r="C30" s="62" t="s">
         <v>268</v>
       </c>
-      <c r="D30" s="64"/>
-    </row>
-    <row r="31" spans="1:7" ht="31.5" customHeight="1">
+      <c r="D30" s="63"/>
+    </row>
+    <row r="31" spans="1:6" ht="31.5" customHeight="1">
       <c r="B31" s="28">
         <v>1</v>
       </c>
-      <c r="C31" s="63" t="s">
+      <c r="C31" s="62" t="s">
         <v>269</v>
       </c>
-      <c r="D31" s="64"/>
-    </row>
-    <row r="32" spans="1:7" ht="31.5" customHeight="1">
+      <c r="D31" s="63"/>
+    </row>
+    <row r="32" spans="1:6" ht="31.5" customHeight="1">
       <c r="B32" s="28">
         <v>0</v>
       </c>
-      <c r="C32" s="63" t="s">
+      <c r="C32" s="62" t="s">
         <v>270</v>
       </c>
-      <c r="D32" s="64"/>
+      <c r="D32" s="63"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -12431,7 +12395,7 @@
     <mergeCell ref="C30:D30"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E22 G3:G22">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E22 F3:F22">
       <formula1>"0,1,2,3,4,5"</formula1>
     </dataValidation>
   </dataValidations>
